--- a/DDS.xlsx
+++ b/DDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/department stores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameel/Library/CloudStorage/Dropbox/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958BD37-6B9B-2149-958A-E23F31BA3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C045089-C51F-7148-BEFF-F45898189020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="620" windowWidth="25340" windowHeight="27760" activeTab="1" xr2:uid="{D425D5D7-3751-A445-8DC6-1CBCA17A6BBD}"/>
+    <workbookView xWindow="20060" yWindow="1360" windowWidth="34840" windowHeight="24700" activeTab="1" xr2:uid="{D425D5D7-3751-A445-8DC6-1CBCA17A6BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>P</t>
   </si>
@@ -259,9 +259,6 @@
     <t xml:space="preserve">Net Cash </t>
   </si>
   <si>
-    <t>Unlevered NPV</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>10-K</t>
-  </si>
-  <si>
     <t>Q125</t>
   </si>
   <si>
@@ -308,6 +302,27 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>Curr debt</t>
+  </si>
+  <si>
+    <t>Deferred i/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt to Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash to Debt </t>
+  </si>
+  <si>
+    <t>Q226</t>
   </si>
 </sst>
 </file>
@@ -379,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,6 +407,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +438,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6576</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>88854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -472,7 +488,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>18406</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>101232</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -873,11 +889,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <f>11.918431+3.986233</f>
-        <v>15.904664</v>
+        <v>15.6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -886,7 +901,7 @@
       </c>
       <c r="G5" s="1">
         <f>+G4*G3</f>
-        <v>6297.6107574400003</v>
+        <v>6176.9759999999997</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -894,12 +909,12 @@
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <f>717.854+325.675</f>
-        <v>1043.529</v>
+        <f>1012+199.8</f>
+        <v>1211.8</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>+H4</f>
-        <v>10-K</v>
+        <v>Q226</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -907,12 +922,12 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <f>321.567+200</f>
-        <v>521.56700000000001</v>
+        <f>96+225.6</f>
+        <v>321.60000000000002</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>+H6</f>
-        <v>10-K</v>
+        <v>Q226</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -921,7 +936,7 @@
       </c>
       <c r="G8" s="1">
         <f>+G5-G6+G7</f>
-        <v>5775.6487574400007</v>
+        <v>5286.7759999999998</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -945,14 +960,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7193794-5C24-B040-B6F8-A4746C75C92F}">
-  <dimension ref="B5:HY62"/>
+  <dimension ref="B5:HY71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Y13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
+      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1010,6 +1025,9 @@
       <c r="W5" s="5">
         <v>45325</v>
       </c>
+      <c r="X5" s="5">
+        <v>45689</v>
+      </c>
     </row>
     <row r="6" spans="2:233" s="2" customFormat="1">
       <c r="C6" s="2" t="s">
@@ -1037,16 +1055,16 @@
         <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="R6" s="2">
         <v>2018</v>
@@ -2018,6 +2036,15 @@
       <c r="K10" s="1">
         <v>1528.9</v>
       </c>
+      <c r="L10" s="1">
+        <v>1513.8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1513.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1513.8</v>
+      </c>
       <c r="R10" s="1">
         <v>6356.1090000000004</v>
       </c>
@@ -2040,44 +2067,44 @@
         <v>6482.6360000000004</v>
       </c>
       <c r="Y10" s="1">
-        <f>+K10 * 4</f>
-        <v>6115.6</v>
+        <f>SUM(K10:N10)</f>
+        <v>6070.3</v>
       </c>
       <c r="Z10" s="1">
         <f>+Y10*0.96</f>
-        <v>5870.9760000000006</v>
+        <v>5827.4880000000003</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ref="AA10:AH10" si="5">+Z10*0.96</f>
-        <v>5636.1369600000007</v>
+        <v>5594.3884799999996</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="5"/>
-        <v>5410.6914816000008</v>
+        <v>5370.6129407999997</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" si="5"/>
-        <v>5194.2638223360009</v>
+        <v>5155.7884231679991</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="5"/>
-        <v>4986.4932694425606</v>
+        <v>4949.5568862412792</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="5"/>
-        <v>4787.0335386648576</v>
+        <v>4751.5746107916275</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="5"/>
-        <v>4595.5521971182634</v>
+        <v>4561.5116263599621</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="5"/>
-        <v>4411.7301092335329</v>
+        <v>4379.0511613055633</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="5"/>
-        <v>4235.2609048641916</v>
+        <v>4203.8891148533403</v>
       </c>
     </row>
     <row r="11" spans="2:233">
@@ -2112,6 +2139,9 @@
       <c r="K11" s="1">
         <v>18.100000000000001</v>
       </c>
+      <c r="L11" s="1">
+        <v>22.2</v>
+      </c>
       <c r="R11" s="1">
         <v>147.24</v>
       </c>
@@ -2143,35 +2173,35 @@
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="6"/>
-        <v>66.72384000000001</v>
+        <v>66.723839999999996</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="6"/>
-        <v>64.054886400000015</v>
+        <v>64.054886399999987</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="6"/>
-        <v>61.49269094400001</v>
+        <v>61.492690943999975</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="6"/>
-        <v>59.032983306240013</v>
+        <v>59.032983306239977</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="6"/>
-        <v>56.671663973990405</v>
+        <v>56.67166397399037</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="6"/>
-        <v>54.404797415030785</v>
+        <v>54.404797415030757</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="6"/>
-        <v>52.228605518429553</v>
+        <v>52.228605518429518</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="6"/>
-        <v>50.139461297692378</v>
+        <v>50.139461297692336</v>
       </c>
     </row>
     <row r="12" spans="2:233" s="3" customFormat="1">
@@ -2179,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:K12" si="7">+SUM(C10:C11)</f>
+        <f t="shared" ref="C12:L12" si="7">+SUM(C10:C11)</f>
         <v>1613.9070000000002</v>
       </c>
       <c r="D12" s="3">
@@ -2214,7 +2244,10 @@
         <f t="shared" si="7"/>
         <v>1547</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="3">
+        <f t="shared" si="7"/>
+        <v>1536</v>
+      </c>
       <c r="R12" s="3">
         <f t="shared" ref="R12:W12" si="8">+SUM(R10:R11)</f>
         <v>6503.3490000000002</v>
@@ -2245,43 +2278,43 @@
       </c>
       <c r="Y12" s="3">
         <f t="shared" ref="Y12:AG12" si="9">SUM(Y10:Y11)</f>
-        <v>6188</v>
+        <v>6142.7</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" si="9"/>
-        <v>5940.4800000000005</v>
+        <v>5896.9920000000002</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" si="9"/>
-        <v>5702.8608000000004</v>
+        <v>5661.1123199999993</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" si="9"/>
-        <v>5474.746368000001</v>
+        <v>5434.6678271999999</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="9"/>
-        <v>5255.7565132800009</v>
+        <v>5217.2811141119992</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" si="9"/>
-        <v>5045.5262527488003</v>
+        <v>5008.5898695475189</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" si="9"/>
-        <v>4843.7052026388483</v>
+        <v>4808.2462747656182</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" si="9"/>
-        <v>4649.9569945332942</v>
+        <v>4615.9164237749928</v>
       </c>
       <c r="AG12" s="3">
         <f t="shared" si="9"/>
-        <v>4463.9587147519624</v>
+        <v>4431.2797668239928</v>
       </c>
       <c r="AH12" s="3">
         <f t="shared" ref="AH12" si="10">SUM(AH10:AH11)</f>
-        <v>4285.4003661618844</v>
+        <v>4254.0285761510322</v>
       </c>
     </row>
     <row r="13" spans="2:233">
@@ -2298,7 +2331,7 @@
         <v>834.53700000000003</v>
       </c>
       <c r="F13" s="1">
-        <f>+W13-SUM(C13:E13)</f>
+        <f t="shared" ref="F13:F21" si="11">+W13-SUM(C13:E13)</f>
         <v>1346.4750000000004</v>
       </c>
       <c r="G13" s="1">
@@ -2339,43 +2372,43 @@
       </c>
       <c r="Y13" s="1">
         <f>+Y$12*(X13/X$12)</f>
-        <v>3680.3215565584878</v>
+        <v>3653.3793189191697</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13:AH13" si="11">+Z$12*(Y13/Y$12)</f>
-        <v>3533.1086942961483</v>
+        <f t="shared" ref="Z13:AH13" si="12">+Z$12*(Y13/Y$12)</f>
+        <v>3507.244146162403</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="11"/>
-        <v>3391.7843465243022</v>
+        <f t="shared" si="12"/>
+        <v>3366.9543803159063</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="11"/>
-        <v>3256.1129726633308</v>
+        <f t="shared" si="12"/>
+        <v>3232.2762051032705</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="11"/>
-        <v>3125.8684537567974</v>
+        <f t="shared" si="12"/>
+        <v>3102.9851568991394</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="11"/>
-        <v>3000.8337156065254</v>
+        <f t="shared" si="12"/>
+        <v>2978.8657506231734</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="11"/>
-        <v>2880.8003669822642</v>
+        <f t="shared" si="12"/>
+        <v>2859.7111205982465</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="11"/>
-        <v>2765.5683523029734</v>
+        <f t="shared" si="12"/>
+        <v>2745.3226757743164</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="11"/>
-        <v>2654.9456182108547</v>
+        <f t="shared" si="12"/>
+        <v>2635.5097687433436</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="11"/>
-        <v>2548.7477934824205</v>
+        <f t="shared" si="12"/>
+        <v>2530.0893779936091</v>
       </c>
     </row>
     <row r="14" spans="2:233">
@@ -2392,7 +2425,7 @@
         <v>421.82499999999999</v>
       </c>
       <c r="F14" s="1">
-        <f>+W14-SUM(C14:E14)</f>
+        <f t="shared" si="11"/>
         <v>476.67200000000003</v>
       </c>
       <c r="G14" s="1">
@@ -2432,44 +2465,44 @@
         <v>1731.2339999999999</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" ref="Y14:AH17" si="12">+Y$12*(X14/X$12)</f>
-        <v>1625.5691176834316</v>
+        <f t="shared" ref="Y14:AH17" si="13">+Y$12*(X14/X$12)</f>
+        <v>1613.668942985458</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="12"/>
-        <v>1560.5463529760943</v>
+        <f t="shared" si="13"/>
+        <v>1549.1221852660399</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="12"/>
-        <v>1498.1244988570506</v>
+        <f t="shared" si="13"/>
+        <v>1487.1572978553979</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="12"/>
-        <v>1438.1995189027687</v>
+        <f t="shared" si="13"/>
+        <v>1427.6710059411823</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="12"/>
-        <v>1380.6715381466579</v>
+        <f t="shared" si="13"/>
+        <v>1370.5641657035349</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="12"/>
-        <v>1325.4446766207916</v>
+        <f t="shared" si="13"/>
+        <v>1315.7415990753932</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="12"/>
-        <v>1272.4268895559599</v>
+        <f t="shared" si="13"/>
+        <v>1263.1119351123775</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="12"/>
-        <v>1221.5298139737215</v>
+        <f t="shared" si="13"/>
+        <v>1212.5874577078823</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="12"/>
-        <v>1172.6686214147726</v>
+        <f t="shared" si="13"/>
+        <v>1164.083959399567</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="12"/>
-        <v>1125.7618765581817</v>
+        <f t="shared" si="13"/>
+        <v>1117.520601023584</v>
       </c>
     </row>
     <row r="15" spans="2:233">
@@ -2486,7 +2519,7 @@
         <v>4.9320000000000004</v>
       </c>
       <c r="F15" s="1">
-        <f>+W15-SUM(C15:E15)</f>
+        <f t="shared" si="11"/>
         <v>7.2949999999999982</v>
       </c>
       <c r="G15" s="1">
@@ -2526,44 +2559,44 @@
         <v>21.419</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="12"/>
-        <v>20.111703519952485</v>
+        <f t="shared" si="13"/>
+        <v>19.964473369749861</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="12"/>
-        <v>19.307235379154385</v>
+        <f t="shared" si="13"/>
+        <v>19.165894434959867</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="12"/>
-        <v>18.534945963988207</v>
+        <f t="shared" si="13"/>
+        <v>18.399258657561468</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="12"/>
-        <v>17.793548125428682</v>
+        <f t="shared" si="13"/>
+        <v>17.663288311259009</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="12"/>
-        <v>17.081806200411535</v>
+        <f t="shared" si="13"/>
+        <v>16.956756778808646</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="12"/>
-        <v>16.39853395239507</v>
+        <f t="shared" si="13"/>
+        <v>16.2784865076563</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="12"/>
-        <v>15.742592594299266</v>
+        <f t="shared" si="13"/>
+        <v>15.62734704735005</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="12"/>
-        <v>15.112888890527294</v>
+        <f t="shared" si="13"/>
+        <v>15.002253165456045</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="12"/>
-        <v>14.508373334906203</v>
+        <f t="shared" si="13"/>
+        <v>14.402163038837802</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="12"/>
-        <v>13.928038401509957</v>
+        <f t="shared" si="13"/>
+        <v>13.826076517284287</v>
       </c>
     </row>
     <row r="16" spans="2:233">
@@ -2580,7 +2613,7 @@
         <v>-1.79</v>
       </c>
       <c r="F16" s="1">
-        <f>+W16-SUM(C16:E16)</f>
+        <f t="shared" si="11"/>
         <v>-3.0649999999999995</v>
       </c>
       <c r="G16" s="1">
@@ -2620,44 +2653,44 @@
         <v>-13.695</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="12"/>
-        <v>-12.859133465883062</v>
+        <f t="shared" si="13"/>
+        <v>-12.764996629101468</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="12"/>
-        <v>-12.34476812724774</v>
+        <f t="shared" si="13"/>
+        <v>-12.254396763937409</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="12"/>
-        <v>-11.850977402157831</v>
+        <f t="shared" si="13"/>
+        <v>-11.76422089337991</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="12"/>
-        <v>-11.376938306071517</v>
+        <f t="shared" si="13"/>
+        <v>-11.293652057644715</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="12"/>
-        <v>-10.921860773828657</v>
+        <f t="shared" si="13"/>
+        <v>-10.841905975338925</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="12"/>
-        <v>-10.48498634287551</v>
+        <f t="shared" si="13"/>
+        <v>-10.408229736325367</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="12"/>
-        <v>-10.065586889160489</v>
+        <f t="shared" si="13"/>
+        <v>-9.991900546872353</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.6629634135940705</v>
+        <f t="shared" si="13"/>
+        <v>-9.5922245249974587</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.2764448770503076</v>
+        <f t="shared" si="13"/>
+        <v>-9.2085355439975594</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="12"/>
-        <v>-8.9053870819682963</v>
+        <f t="shared" si="13"/>
+        <v>-8.840194122237655</v>
       </c>
     </row>
     <row r="17" spans="2:233">
@@ -2674,7 +2707,7 @@
         <v>4.6970000000000001</v>
       </c>
       <c r="F17" s="1">
-        <f>+W17-SUM(C17:E17)</f>
+        <f t="shared" si="11"/>
         <v>4.6980000000000004</v>
       </c>
       <c r="G17" s="1">
@@ -2714,44 +2747,44 @@
         <v>24.631</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="12"/>
-        <v>23.127660927211803</v>
+        <f t="shared" si="13"/>
+        <v>22.958352097217833</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="12"/>
-        <v>22.202554490123333</v>
+        <f t="shared" si="13"/>
+        <v>22.040018013329121</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="12"/>
-        <v>21.314452310518401</v>
+        <f t="shared" si="13"/>
+        <v>21.158417292795953</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="12"/>
-        <v>20.461874218097666</v>
+        <f t="shared" si="13"/>
+        <v>20.312080601084116</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="12"/>
-        <v>19.643399249373761</v>
+        <f t="shared" si="13"/>
+        <v>19.49959737704075</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="12"/>
-        <v>18.85766327939881</v>
+        <f t="shared" si="13"/>
+        <v>18.719613481959119</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="12"/>
-        <v>18.103356748222858</v>
+        <f t="shared" si="13"/>
+        <v>17.970828942680754</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="12"/>
-        <v>17.379222478293944</v>
+        <f t="shared" si="13"/>
+        <v>17.25199578497352</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="12"/>
-        <v>16.684053579162185</v>
+        <f t="shared" si="13"/>
+        <v>16.561915953574577</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="12"/>
-        <v>16.0166914359957</v>
+        <f t="shared" si="13"/>
+        <v>15.899439315431591</v>
       </c>
     </row>
     <row r="18" spans="2:233">
@@ -2771,7 +2804,7 @@
         <v>240.03300000000013</v>
       </c>
       <c r="F18" s="1">
-        <f>+W18-SUM(C18:E18)</f>
+        <f t="shared" si="11"/>
         <v>326.78600000000006</v>
       </c>
       <c r="G18" s="1">
@@ -2795,72 +2828,72 @@
         <v>258.09999999999991</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:X18" si="13">+R12-SUM(R13:R17)</f>
+        <f t="shared" ref="R18:X18" si="14">+R12-SUM(R13:R17)</f>
         <v>431.82499999999982</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>335.94700000000012</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>72.9399999999996</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1262.996000000001</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1276.8600000000006</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1090.1369999999997</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>907.09300000000076</v>
       </c>
       <c r="Y18" s="1">
         <f>+Y12-SUM(Y13:Y17)</f>
-        <v>851.72909477679968</v>
+        <v>845.49390925750595</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ref="Z18:AG18" si="14">+Z12-SUM(Z13:Z17)</f>
-        <v>817.65993098572744</v>
+        <f t="shared" ref="Z18:AG18" si="15">+Z12-SUM(Z13:Z17)</f>
+        <v>811.67415288720531</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="14"/>
-        <v>784.95353374629849</v>
+        <f t="shared" si="15"/>
+        <v>779.20718677171772</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="14"/>
-        <v>753.55539239644713</v>
+        <f t="shared" si="15"/>
+        <v>748.03889930084915</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="14"/>
-        <v>723.41317670058834</v>
+        <f t="shared" si="15"/>
+        <v>718.11734332881406</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="14"/>
-        <v>694.47664963256466</v>
+        <f t="shared" si="15"/>
+        <v>689.39264959566299</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="14"/>
-        <v>666.69758364726295</v>
+        <f t="shared" si="15"/>
+        <v>661.8169436118369</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="14"/>
-        <v>640.02968030137254</v>
+        <f t="shared" si="15"/>
+        <v>635.34426586736208</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="14"/>
-        <v>614.42849308931727</v>
+        <f t="shared" si="15"/>
+        <v>609.93049523266745</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" ref="AH18" si="15">+AH12-SUM(AH13:AH17)</f>
-        <v>589.85135336574513</v>
+        <f t="shared" ref="AH18" si="16">+AH12-SUM(AH13:AH17)</f>
+        <v>585.53327542336092</v>
       </c>
     </row>
     <row r="19" spans="2:233">
@@ -2877,7 +2910,7 @@
         <v>44.04</v>
       </c>
       <c r="F19" s="1">
-        <f>+W19-SUM(C19:E19)</f>
+        <f t="shared" si="11"/>
         <v>32.03000000000003</v>
       </c>
       <c r="G19" s="1">
@@ -2918,43 +2951,43 @@
       </c>
       <c r="Y19" s="1">
         <f>+Y18*(X19/X18)</f>
-        <v>127.91058462138881</v>
+        <v>126.97419976629038</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" ref="Z19:AH19" si="16">+Z18*(Y19/Y18)</f>
-        <v>122.79416123653321</v>
+        <f t="shared" ref="Z19:AH19" si="17">+Z18*(Y19/Y18)</f>
+        <v>121.89523177563871</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="16"/>
-        <v>117.8823947870719</v>
+        <f t="shared" si="17"/>
+        <v>117.01942250461325</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="16"/>
-        <v>113.16709899558911</v>
+        <f t="shared" si="17"/>
+        <v>112.33864560442875</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="16"/>
-        <v>108.64041503576541</v>
+        <f t="shared" si="17"/>
+        <v>107.84509978025143</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="16"/>
-        <v>104.29479843433478</v>
+        <f t="shared" si="17"/>
+        <v>103.53129578904159</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="16"/>
-        <v>100.12300649696151</v>
+        <f t="shared" si="17"/>
+        <v>99.390043957479989</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="16"/>
-        <v>96.118086237083077</v>
+        <f t="shared" si="17"/>
+        <v>95.414442199180598</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="16"/>
-        <v>92.273362787599694</v>
+        <f t="shared" si="17"/>
+        <v>91.597864511213345</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="16"/>
-        <v>88.582428276095783</v>
+        <f t="shared" si="17"/>
+        <v>87.93394993076484</v>
       </c>
     </row>
     <row r="20" spans="2:233">
@@ -2974,7 +3007,7 @@
         <v>195.99300000000014</v>
       </c>
       <c r="F20" s="1">
-        <f>+W20-SUM(C20:E20)</f>
+        <f t="shared" si="11"/>
         <v>294.75600000000009</v>
       </c>
       <c r="G20" s="1">
@@ -2998,868 +3031,868 @@
         <v>208.1999999999999</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20:X20" si="17">+R18-R19</f>
+        <f t="shared" ref="R20:X20" si="18">+R18-R19</f>
         <v>394.0949999999998</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>313.13700000000011</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>154.6899999999996</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1037.1060000000011</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1059.0300000000007</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>912.36699999999973</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>770.86800000000073</v>
       </c>
       <c r="Y20" s="1">
         <f>+Y18-Y19</f>
-        <v>723.81851015541088</v>
+        <v>718.51970949121551</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20:AG20" si="18">+Z18-Z19</f>
-        <v>694.86576974919421</v>
+        <f t="shared" ref="Z20:AG20" si="19">+Z18-Z19</f>
+        <v>689.77892111156666</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="18"/>
-        <v>667.07113895922657</v>
+        <f t="shared" si="19"/>
+        <v>662.18776426710451</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="18"/>
-        <v>640.38829340085806</v>
+        <f t="shared" si="19"/>
+        <v>635.70025369642042</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="18"/>
-        <v>614.77276166482295</v>
+        <f t="shared" si="19"/>
+        <v>610.27224354856264</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="18"/>
-        <v>590.18185119822988</v>
+        <f t="shared" si="19"/>
+        <v>585.86135380662142</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="18"/>
-        <v>566.57457715030148</v>
+        <f t="shared" si="19"/>
+        <v>562.42689965435693</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="18"/>
-        <v>543.91159406428949</v>
+        <f t="shared" si="19"/>
+        <v>539.92982366818148</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="18"/>
-        <v>522.15513030171758</v>
+        <f t="shared" si="19"/>
+        <v>518.33263072145405</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" ref="AH20" si="19">+AH18-AH19</f>
-        <v>501.26892508964931</v>
+        <f t="shared" ref="AH20" si="20">+AH18-AH19</f>
+        <v>497.59932549259611</v>
       </c>
       <c r="AI20" s="1">
-        <f>+AH20* ( 1 + $AK$32)</f>
-        <v>496.25623583875284</v>
+        <f t="shared" ref="AI20:BM20" si="21">+AH20* ( 1 + $AK$32)</f>
+        <v>492.62333223767013</v>
       </c>
       <c r="AJ20" s="1">
-        <f>+AI20* ( 1 + $AK$32)</f>
-        <v>491.29367348036533</v>
+        <f t="shared" si="21"/>
+        <v>487.6970989152934</v>
       </c>
       <c r="AK20" s="1">
-        <f>+AJ20* ( 1 + $AK$32)</f>
-        <v>486.38073674556165</v>
+        <f t="shared" si="21"/>
+        <v>482.82012792614046</v>
       </c>
       <c r="AL20" s="1">
-        <f>+AK20* ( 1 + $AK$32)</f>
-        <v>481.51692937810606</v>
+        <f t="shared" si="21"/>
+        <v>477.99192664687905</v>
       </c>
       <c r="AM20" s="1">
-        <f>+AL20* ( 1 + $AK$32)</f>
-        <v>476.70176008432497</v>
+        <f t="shared" si="21"/>
+        <v>473.21200738041028</v>
       </c>
       <c r="AN20" s="1">
-        <f>+AM20* ( 1 + $AK$32)</f>
-        <v>471.93474248348173</v>
+        <f t="shared" si="21"/>
+        <v>468.4798873066062</v>
       </c>
       <c r="AO20" s="1">
-        <f>+AN20* ( 1 + $AK$32)</f>
-        <v>467.21539505864689</v>
+        <f t="shared" si="21"/>
+        <v>463.79508843354012</v>
       </c>
       <c r="AP20" s="1">
-        <f>+AO20* ( 1 + $AK$32)</f>
-        <v>462.54324110806044</v>
+        <f t="shared" si="21"/>
+        <v>459.15713754920472</v>
       </c>
       <c r="AQ20" s="1">
-        <f>+AP20* ( 1 + $AK$32)</f>
-        <v>457.91780869697982</v>
+        <f t="shared" si="21"/>
+        <v>454.56556617371268</v>
       </c>
       <c r="AR20" s="1">
-        <f>+AQ20* ( 1 + $AK$32)</f>
-        <v>453.33863061001</v>
+        <f t="shared" si="21"/>
+        <v>450.01991051197552</v>
       </c>
       <c r="AS20" s="1">
-        <f>+AR20* ( 1 + $AK$32)</f>
-        <v>448.80524430390989</v>
+        <f t="shared" si="21"/>
+        <v>445.51971140685578</v>
       </c>
       <c r="AT20" s="1">
-        <f>+AS20* ( 1 + $AK$32)</f>
-        <v>444.31719186087076</v>
+        <f t="shared" si="21"/>
+        <v>441.06451429278724</v>
       </c>
       <c r="AU20" s="1">
-        <f>+AT20* ( 1 + $AK$32)</f>
-        <v>439.87401994226207</v>
+        <f t="shared" si="21"/>
+        <v>436.65386914985936</v>
       </c>
       <c r="AV20" s="1">
-        <f>+AU20* ( 1 + $AK$32)</f>
-        <v>435.47527974283946</v>
+        <f t="shared" si="21"/>
+        <v>432.28733045836077</v>
       </c>
       <c r="AW20" s="1">
-        <f>+AV20* ( 1 + $AK$32)</f>
-        <v>431.12052694541109</v>
+        <f t="shared" si="21"/>
+        <v>427.96445715377718</v>
       </c>
       <c r="AX20" s="1">
-        <f>+AW20* ( 1 + $AK$32)</f>
-        <v>426.80932167595699</v>
+        <f t="shared" si="21"/>
+        <v>423.68481258223937</v>
       </c>
       <c r="AY20" s="1">
-        <f>+AX20* ( 1 + $AK$32)</f>
-        <v>422.54122845919744</v>
+        <f t="shared" si="21"/>
+        <v>419.44796445641697</v>
       </c>
       <c r="AZ20" s="1">
-        <f>+AY20* ( 1 + $AK$32)</f>
-        <v>418.31581617460546</v>
+        <f t="shared" si="21"/>
+        <v>415.25348481185279</v>
       </c>
       <c r="BA20" s="1">
-        <f>+AZ20* ( 1 + $AK$32)</f>
-        <v>414.13265801285939</v>
+        <f t="shared" si="21"/>
+        <v>411.10094996373425</v>
       </c>
       <c r="BB20" s="1">
-        <f>+BA20* ( 1 + $AK$32)</f>
-        <v>409.99133143273082</v>
+        <f t="shared" si="21"/>
+        <v>406.98994046409689</v>
       </c>
       <c r="BC20" s="1">
-        <f>+BB20* ( 1 + $AK$32)</f>
-        <v>405.89141811840352</v>
+        <f t="shared" si="21"/>
+        <v>402.92004105945591</v>
       </c>
       <c r="BD20" s="1">
-        <f>+BC20* ( 1 + $AK$32)</f>
-        <v>401.83250393721949</v>
+        <f t="shared" si="21"/>
+        <v>398.89084064886134</v>
       </c>
       <c r="BE20" s="1">
-        <f>+BD20* ( 1 + $AK$32)</f>
-        <v>397.81417889784728</v>
+        <f t="shared" si="21"/>
+        <v>394.90193224237271</v>
       </c>
       <c r="BF20" s="1">
-        <f>+BE20* ( 1 + $AK$32)</f>
-        <v>393.83603710886882</v>
+        <f t="shared" si="21"/>
+        <v>390.95291291994897</v>
       </c>
       <c r="BG20" s="1">
-        <f>+BF20* ( 1 + $AK$32)</f>
-        <v>389.8976767377801</v>
+        <f t="shared" si="21"/>
+        <v>387.04338379074949</v>
       </c>
       <c r="BH20" s="1">
-        <f>+BG20* ( 1 + $AK$32)</f>
-        <v>385.9986999704023</v>
+        <f t="shared" si="21"/>
+        <v>383.17294995284198</v>
       </c>
       <c r="BI20" s="1">
-        <f>+BH20* ( 1 + $AK$32)</f>
-        <v>382.13871297069829</v>
+        <f t="shared" si="21"/>
+        <v>379.34122045331355</v>
       </c>
       <c r="BJ20" s="1">
-        <f>+BI20* ( 1 + $AK$32)</f>
-        <v>378.31732584099132</v>
+        <f t="shared" si="21"/>
+        <v>375.54780824878043</v>
       </c>
       <c r="BK20" s="1">
-        <f>+BJ20* ( 1 + $AK$32)</f>
-        <v>374.53415258258138</v>
+        <f t="shared" si="21"/>
+        <v>371.79233016629263</v>
       </c>
       <c r="BL20" s="1">
-        <f>+BK20* ( 1 + $AK$32)</f>
-        <v>370.78881105675555</v>
+        <f t="shared" si="21"/>
+        <v>368.07440686462968</v>
       </c>
       <c r="BM20" s="1">
-        <f>+BL20* ( 1 + $AK$32)</f>
-        <v>367.08092294618797</v>
+        <f t="shared" si="21"/>
+        <v>364.3936627959834</v>
       </c>
       <c r="BN20" s="1">
-        <f t="shared" ref="BN20:CS20" si="20">+BM20* ( 1 + $AK$32)</f>
-        <v>363.41011371672607</v>
+        <f t="shared" ref="BN20:CS20" si="22">+BM20* ( 1 + $AK$32)</f>
+        <v>360.74972616802359</v>
       </c>
       <c r="BO20" s="1">
-        <f t="shared" si="20"/>
-        <v>359.77601257955882</v>
+        <f t="shared" si="22"/>
+        <v>357.14222890634335</v>
       </c>
       <c r="BP20" s="1">
-        <f t="shared" si="20"/>
-        <v>356.17825245376321</v>
+        <f t="shared" si="22"/>
+        <v>353.57080661727991</v>
       </c>
       <c r="BQ20" s="1">
-        <f t="shared" si="20"/>
-        <v>352.61646992922556</v>
+        <f t="shared" si="22"/>
+        <v>350.03509855110713</v>
       </c>
       <c r="BR20" s="1">
-        <f t="shared" si="20"/>
-        <v>349.09030522993328</v>
+        <f t="shared" si="22"/>
+        <v>346.53474756559604</v>
       </c>
       <c r="BS20" s="1">
-        <f t="shared" si="20"/>
-        <v>345.59940217763392</v>
+        <f t="shared" si="22"/>
+        <v>343.06940008994007</v>
       </c>
       <c r="BT20" s="1">
-        <f t="shared" si="20"/>
-        <v>342.14340815585757</v>
+        <f t="shared" si="22"/>
+        <v>339.63870608904068</v>
       </c>
       <c r="BU20" s="1">
-        <f t="shared" si="20"/>
-        <v>338.721974074299</v>
+        <f t="shared" si="22"/>
+        <v>336.24231902815029</v>
       </c>
       <c r="BV20" s="1">
-        <f t="shared" si="20"/>
-        <v>335.33475433355602</v>
+        <f t="shared" si="22"/>
+        <v>332.87989583786879</v>
       </c>
       <c r="BW20" s="1">
-        <f t="shared" si="20"/>
-        <v>331.98140679022043</v>
+        <f t="shared" si="22"/>
+        <v>329.5510968794901</v>
       </c>
       <c r="BX20" s="1">
-        <f t="shared" si="20"/>
-        <v>328.66159272231823</v>
+        <f t="shared" si="22"/>
+        <v>326.25558591069517</v>
       </c>
       <c r="BY20" s="1">
-        <f t="shared" si="20"/>
-        <v>325.37497679509505</v>
+        <f t="shared" si="22"/>
+        <v>322.99303005158822</v>
       </c>
       <c r="BZ20" s="1">
-        <f t="shared" si="20"/>
-        <v>322.12122702714407</v>
+        <f t="shared" si="22"/>
+        <v>319.76309975107233</v>
       </c>
       <c r="CA20" s="1">
-        <f t="shared" si="20"/>
-        <v>318.90001475687262</v>
+        <f t="shared" si="22"/>
+        <v>316.56546875356162</v>
       </c>
       <c r="CB20" s="1">
-        <f t="shared" si="20"/>
-        <v>315.7110146093039</v>
+        <f t="shared" si="22"/>
+        <v>313.39981406602601</v>
       </c>
       <c r="CC20" s="1">
-        <f t="shared" si="20"/>
-        <v>312.55390446321087</v>
+        <f t="shared" si="22"/>
+        <v>310.26581592536576</v>
       </c>
       <c r="CD20" s="1">
-        <f t="shared" si="20"/>
-        <v>309.42836541857878</v>
+        <f t="shared" si="22"/>
+        <v>307.16315776611208</v>
       </c>
       <c r="CE20" s="1">
-        <f t="shared" si="20"/>
-        <v>306.33408176439298</v>
+        <f t="shared" si="22"/>
+        <v>304.09152618845093</v>
       </c>
       <c r="CF20" s="1">
-        <f t="shared" si="20"/>
-        <v>303.27074094674907</v>
+        <f t="shared" si="22"/>
+        <v>301.05061092656643</v>
       </c>
       <c r="CG20" s="1">
-        <f t="shared" si="20"/>
-        <v>300.23803353728158</v>
+        <f t="shared" si="22"/>
+        <v>298.04010481730074</v>
       </c>
       <c r="CH20" s="1">
-        <f t="shared" si="20"/>
-        <v>297.23565320190875</v>
+        <f t="shared" si="22"/>
+        <v>295.05970376912774</v>
       </c>
       <c r="CI20" s="1">
-        <f t="shared" si="20"/>
-        <v>294.26329666988966</v>
+        <f t="shared" si="22"/>
+        <v>292.10910673143644</v>
       </c>
       <c r="CJ20" s="1">
-        <f t="shared" si="20"/>
-        <v>291.32066370319075</v>
+        <f t="shared" si="22"/>
+        <v>289.18801566412208</v>
       </c>
       <c r="CK20" s="1">
-        <f t="shared" si="20"/>
-        <v>288.40745706615883</v>
+        <f t="shared" si="22"/>
+        <v>286.29613550748087</v>
       </c>
       <c r="CL20" s="1">
-        <f t="shared" si="20"/>
-        <v>285.52338249549723</v>
+        <f t="shared" si="22"/>
+        <v>283.43317415240608</v>
       </c>
       <c r="CM20" s="1">
-        <f t="shared" si="20"/>
-        <v>282.66814867054228</v>
+        <f t="shared" si="22"/>
+        <v>280.59884241088201</v>
       </c>
       <c r="CN20" s="1">
-        <f t="shared" si="20"/>
-        <v>279.84146718383687</v>
+        <f t="shared" si="22"/>
+        <v>277.7928539867732</v>
       </c>
       <c r="CO20" s="1">
-        <f t="shared" si="20"/>
-        <v>277.0430525119985</v>
+        <f t="shared" si="22"/>
+        <v>275.01492544690547</v>
       </c>
       <c r="CP20" s="1">
-        <f t="shared" si="20"/>
-        <v>274.27262198687851</v>
+        <f t="shared" si="22"/>
+        <v>272.26477619243639</v>
       </c>
       <c r="CQ20" s="1">
-        <f t="shared" si="20"/>
-        <v>271.52989576700969</v>
+        <f t="shared" si="22"/>
+        <v>269.54212843051204</v>
       </c>
       <c r="CR20" s="1">
-        <f t="shared" si="20"/>
-        <v>268.8145968093396</v>
+        <f t="shared" si="22"/>
+        <v>266.84670714620694</v>
       </c>
       <c r="CS20" s="1">
-        <f t="shared" si="20"/>
-        <v>266.1264508412462</v>
+        <f t="shared" si="22"/>
+        <v>264.17824007474485</v>
       </c>
       <c r="CT20" s="1">
-        <f t="shared" ref="CT20:DY20" si="21">+CS20* ( 1 + $AK$32)</f>
-        <v>263.46518633283375</v>
+        <f t="shared" ref="CT20:DY20" si="23">+CS20* ( 1 + $AK$32)</f>
+        <v>261.5364576739974</v>
       </c>
       <c r="CU20" s="1">
-        <f t="shared" si="21"/>
-        <v>260.83053446950544</v>
+        <f t="shared" si="23"/>
+        <v>258.92109309725743</v>
       </c>
       <c r="CV20" s="1">
-        <f t="shared" si="21"/>
-        <v>258.22222912481038</v>
+        <f t="shared" si="23"/>
+        <v>256.33188216628486</v>
       </c>
       <c r="CW20" s="1">
-        <f t="shared" si="21"/>
-        <v>255.64000683356227</v>
+        <f t="shared" si="23"/>
+        <v>253.76856334462201</v>
       </c>
       <c r="CX20" s="1">
-        <f t="shared" si="21"/>
-        <v>253.08360676522665</v>
+        <f t="shared" si="23"/>
+        <v>251.23087771117579</v>
       </c>
       <c r="CY20" s="1">
-        <f t="shared" si="21"/>
-        <v>250.55277069757437</v>
+        <f t="shared" si="23"/>
+        <v>248.71856893406402</v>
       </c>
       <c r="CZ20" s="1">
-        <f t="shared" si="21"/>
-        <v>248.04724299059862</v>
+        <f t="shared" si="23"/>
+        <v>246.23138324472339</v>
       </c>
       <c r="DA20" s="1">
-        <f t="shared" si="21"/>
-        <v>245.56677056069262</v>
+        <f t="shared" si="23"/>
+        <v>243.76906941227617</v>
       </c>
       <c r="DB20" s="1">
-        <f t="shared" si="21"/>
-        <v>243.11110285508568</v>
+        <f t="shared" si="23"/>
+        <v>241.33137871815342</v>
       </c>
       <c r="DC20" s="1">
-        <f t="shared" si="21"/>
-        <v>240.67999182653483</v>
+        <f t="shared" si="23"/>
+        <v>238.91806493097189</v>
       </c>
       <c r="DD20" s="1">
-        <f t="shared" si="21"/>
-        <v>238.27319190826947</v>
+        <f t="shared" si="23"/>
+        <v>236.52888428166219</v>
       </c>
       <c r="DE20" s="1">
-        <f t="shared" si="21"/>
-        <v>235.89045998918678</v>
+        <f t="shared" si="23"/>
+        <v>234.16359543884556</v>
       </c>
       <c r="DF20" s="1">
-        <f t="shared" si="21"/>
-        <v>233.53155538929491</v>
+        <f t="shared" si="23"/>
+        <v>231.8219594844571</v>
       </c>
       <c r="DG20" s="1">
-        <f t="shared" si="21"/>
-        <v>231.19623983540197</v>
+        <f t="shared" si="23"/>
+        <v>229.50373988961252</v>
       </c>
       <c r="DH20" s="1">
-        <f t="shared" si="21"/>
-        <v>228.88427743704796</v>
+        <f t="shared" si="23"/>
+        <v>227.20870249071641</v>
       </c>
       <c r="DI20" s="1">
-        <f t="shared" si="21"/>
-        <v>226.59543466267746</v>
+        <f t="shared" si="23"/>
+        <v>224.93661546580924</v>
       </c>
       <c r="DJ20" s="1">
-        <f t="shared" si="21"/>
-        <v>224.32948031605068</v>
+        <f t="shared" si="23"/>
+        <v>222.68724931115113</v>
       </c>
       <c r="DK20" s="1">
-        <f t="shared" si="21"/>
-        <v>222.08618551289018</v>
+        <f t="shared" si="23"/>
+        <v>220.46037681803963</v>
       </c>
       <c r="DL20" s="1">
-        <f t="shared" si="21"/>
-        <v>219.86532365776128</v>
+        <f t="shared" si="23"/>
+        <v>218.25577304985924</v>
       </c>
       <c r="DM20" s="1">
-        <f t="shared" si="21"/>
-        <v>217.66667042118365</v>
+        <f t="shared" si="23"/>
+        <v>216.07321531936066</v>
       </c>
       <c r="DN20" s="1">
-        <f t="shared" si="21"/>
-        <v>215.49000371697181</v>
+        <f t="shared" si="23"/>
+        <v>213.91248316616705</v>
       </c>
       <c r="DO20" s="1">
-        <f t="shared" si="21"/>
-        <v>213.3351036798021</v>
+        <f t="shared" si="23"/>
+        <v>211.77335833450539</v>
       </c>
       <c r="DP20" s="1">
-        <f t="shared" si="21"/>
-        <v>211.20175264300408</v>
+        <f t="shared" si="23"/>
+        <v>209.65562475116033</v>
       </c>
       <c r="DQ20" s="1">
-        <f t="shared" si="21"/>
-        <v>209.08973511657405</v>
+        <f t="shared" si="23"/>
+        <v>207.55906850364872</v>
       </c>
       <c r="DR20" s="1">
-        <f t="shared" si="21"/>
-        <v>206.9988377654083</v>
+        <f t="shared" si="23"/>
+        <v>205.48347781861222</v>
       </c>
       <c r="DS20" s="1">
-        <f t="shared" si="21"/>
-        <v>204.92884938775421</v>
+        <f t="shared" si="23"/>
+        <v>203.4286430404261</v>
       </c>
       <c r="DT20" s="1">
-        <f t="shared" si="21"/>
-        <v>202.87956089387666</v>
+        <f t="shared" si="23"/>
+        <v>201.39435661002184</v>
       </c>
       <c r="DU20" s="1">
-        <f t="shared" si="21"/>
-        <v>200.85076528493789</v>
+        <f t="shared" si="23"/>
+        <v>199.38041304392164</v>
       </c>
       <c r="DV20" s="1">
-        <f t="shared" si="21"/>
-        <v>198.84225763208852</v>
+        <f t="shared" si="23"/>
+        <v>197.38660891348241</v>
       </c>
       <c r="DW20" s="1">
-        <f t="shared" si="21"/>
-        <v>196.85383505576763</v>
+        <f t="shared" si="23"/>
+        <v>195.41274282434759</v>
       </c>
       <c r="DX20" s="1">
-        <f t="shared" si="21"/>
-        <v>194.88529670520995</v>
+        <f t="shared" si="23"/>
+        <v>193.45861539610411</v>
       </c>
       <c r="DY20" s="1">
-        <f t="shared" si="21"/>
-        <v>192.93644373815786</v>
+        <f t="shared" si="23"/>
+        <v>191.52402924214306</v>
       </c>
       <c r="DZ20" s="1">
-        <f t="shared" ref="DZ20:FE20" si="22">+DY20* ( 1 + $AK$32)</f>
-        <v>191.00707930077627</v>
+        <f t="shared" ref="DZ20:FE20" si="24">+DY20* ( 1 + $AK$32)</f>
+        <v>189.60878894972163</v>
       </c>
       <c r="EA20" s="1">
-        <f t="shared" si="22"/>
-        <v>189.09700850776849</v>
+        <f t="shared" si="24"/>
+        <v>187.71270106022442</v>
       </c>
       <c r="EB20" s="1">
-        <f t="shared" si="22"/>
-        <v>187.2060384226908</v>
+        <f t="shared" si="24"/>
+        <v>185.83557404962218</v>
       </c>
       <c r="EC20" s="1">
-        <f t="shared" si="22"/>
-        <v>185.3339780384639</v>
+        <f t="shared" si="24"/>
+        <v>183.97721830912596</v>
       </c>
       <c r="ED20" s="1">
-        <f t="shared" si="22"/>
-        <v>183.48063825807927</v>
+        <f t="shared" si="24"/>
+        <v>182.13744612603469</v>
       </c>
       <c r="EE20" s="1">
-        <f t="shared" si="22"/>
-        <v>181.64583187549846</v>
+        <f t="shared" si="24"/>
+        <v>180.31607166477434</v>
       </c>
       <c r="EF20" s="1">
-        <f t="shared" si="22"/>
-        <v>179.82937355674346</v>
+        <f t="shared" si="24"/>
+        <v>178.5129109481266</v>
       </c>
       <c r="EG20" s="1">
-        <f t="shared" si="22"/>
-        <v>178.03107982117604</v>
+        <f t="shared" si="24"/>
+        <v>176.72778183864534</v>
       </c>
       <c r="EH20" s="1">
-        <f t="shared" si="22"/>
-        <v>176.25076902296428</v>
+        <f t="shared" si="24"/>
+        <v>174.9605040202589</v>
       </c>
       <c r="EI20" s="1">
-        <f t="shared" si="22"/>
-        <v>174.48826133273462</v>
+        <f t="shared" si="24"/>
+        <v>173.2108989800563</v>
       </c>
       <c r="EJ20" s="1">
-        <f t="shared" si="22"/>
-        <v>172.74337871940727</v>
+        <f t="shared" si="24"/>
+        <v>171.47878999025573</v>
       </c>
       <c r="EK20" s="1">
-        <f t="shared" si="22"/>
-        <v>171.01594493221319</v>
+        <f t="shared" si="24"/>
+        <v>169.76400209035319</v>
       </c>
       <c r="EL20" s="1">
-        <f t="shared" si="22"/>
-        <v>169.30578548289105</v>
+        <f t="shared" si="24"/>
+        <v>168.06636206944967</v>
       </c>
       <c r="EM20" s="1">
-        <f t="shared" si="22"/>
-        <v>167.61272762806215</v>
+        <f t="shared" si="24"/>
+        <v>166.38569844875516</v>
       </c>
       <c r="EN20" s="1">
-        <f t="shared" si="22"/>
-        <v>165.93660035178152</v>
+        <f t="shared" si="24"/>
+        <v>164.72184146426761</v>
       </c>
       <c r="EO20" s="1">
-        <f t="shared" si="22"/>
-        <v>164.2772343482637</v>
+        <f t="shared" si="24"/>
+        <v>163.07462304962493</v>
       </c>
       <c r="EP20" s="1">
-        <f t="shared" si="22"/>
-        <v>162.63446200478106</v>
+        <f t="shared" si="24"/>
+        <v>161.44387681912869</v>
       </c>
       <c r="EQ20" s="1">
-        <f t="shared" si="22"/>
-        <v>161.00811738473325</v>
+        <f t="shared" si="24"/>
+        <v>159.8294380509374</v>
       </c>
       <c r="ER20" s="1">
-        <f t="shared" si="22"/>
-        <v>159.39803621088592</v>
+        <f t="shared" si="24"/>
+        <v>158.23114367042803</v>
       </c>
       <c r="ES20" s="1">
-        <f t="shared" si="22"/>
-        <v>157.80405584877707</v>
+        <f t="shared" si="24"/>
+        <v>156.64883223372374</v>
       </c>
       <c r="ET20" s="1">
-        <f t="shared" si="22"/>
-        <v>156.2260152902893</v>
+        <f t="shared" si="24"/>
+        <v>155.08234391138649</v>
       </c>
       <c r="EU20" s="1">
-        <f t="shared" si="22"/>
-        <v>154.6637551373864</v>
+        <f t="shared" si="24"/>
+        <v>153.53152047227263</v>
       </c>
       <c r="EV20" s="1">
-        <f t="shared" si="22"/>
-        <v>153.11711758601254</v>
+        <f t="shared" si="24"/>
+        <v>151.9962052675499</v>
       </c>
       <c r="EW20" s="1">
-        <f t="shared" si="22"/>
-        <v>151.58594641015242</v>
+        <f t="shared" si="24"/>
+        <v>150.47624321487439</v>
       </c>
       <c r="EX20" s="1">
-        <f t="shared" si="22"/>
-        <v>150.07008694605088</v>
+        <f t="shared" si="24"/>
+        <v>148.97148078272565</v>
       </c>
       <c r="EY20" s="1">
-        <f t="shared" si="22"/>
-        <v>148.56938607659038</v>
+        <f t="shared" si="24"/>
+        <v>147.48176597489839</v>
       </c>
       <c r="EZ20" s="1">
-        <f t="shared" si="22"/>
-        <v>147.08369221582447</v>
+        <f t="shared" si="24"/>
+        <v>146.0069483151494</v>
       </c>
       <c r="FA20" s="1">
-        <f t="shared" si="22"/>
-        <v>145.61285529366623</v>
+        <f t="shared" si="24"/>
+        <v>144.5468788319979</v>
       </c>
       <c r="FB20" s="1">
-        <f t="shared" si="22"/>
-        <v>144.15672674072957</v>
+        <f t="shared" si="24"/>
+        <v>143.10141004367793</v>
       </c>
       <c r="FC20" s="1">
-        <f t="shared" si="22"/>
-        <v>142.71515947332227</v>
+        <f t="shared" si="24"/>
+        <v>141.67039594324115</v>
       </c>
       <c r="FD20" s="1">
-        <f t="shared" si="22"/>
-        <v>141.28800787858904</v>
+        <f t="shared" si="24"/>
+        <v>140.25369198380872</v>
       </c>
       <c r="FE20" s="1">
-        <f t="shared" si="22"/>
-        <v>139.87512779980315</v>
+        <f t="shared" si="24"/>
+        <v>138.85115506397062</v>
       </c>
       <c r="FF20" s="1">
-        <f t="shared" ref="FF20:GK20" si="23">+FE20* ( 1 + $AK$32)</f>
-        <v>138.47637652180512</v>
+        <f t="shared" ref="FF20:GK20" si="25">+FE20* ( 1 + $AK$32)</f>
+        <v>137.4626435133309</v>
       </c>
       <c r="FG20" s="1">
-        <f t="shared" si="23"/>
-        <v>137.09161275658707</v>
+        <f t="shared" si="25"/>
+        <v>136.08801707819759</v>
       </c>
       <c r="FH20" s="1">
-        <f t="shared" si="23"/>
-        <v>135.72069662902121</v>
+        <f t="shared" si="25"/>
+        <v>134.72713690741563</v>
       </c>
       <c r="FI20" s="1">
-        <f t="shared" si="23"/>
-        <v>134.36348966273098</v>
+        <f t="shared" si="25"/>
+        <v>133.37986553834148</v>
       </c>
       <c r="FJ20" s="1">
-        <f t="shared" si="23"/>
-        <v>133.01985476610366</v>
+        <f t="shared" si="25"/>
+        <v>132.04606688295806</v>
       </c>
       <c r="FK20" s="1">
-        <f t="shared" si="23"/>
-        <v>131.68965621844262</v>
+        <f t="shared" si="25"/>
+        <v>130.72560621412848</v>
       </c>
       <c r="FL20" s="1">
-        <f t="shared" si="23"/>
-        <v>130.37275965625818</v>
+        <f t="shared" si="25"/>
+        <v>129.4183501519872</v>
       </c>
       <c r="FM20" s="1">
-        <f t="shared" si="23"/>
-        <v>129.06903205969559</v>
+        <f t="shared" si="25"/>
+        <v>128.12416665046732</v>
       </c>
       <c r="FN20" s="1">
-        <f t="shared" si="23"/>
-        <v>127.77834173909864</v>
+        <f t="shared" si="25"/>
+        <v>126.84292498396265</v>
       </c>
       <c r="FO20" s="1">
-        <f t="shared" si="23"/>
-        <v>126.50055832170764</v>
+        <f t="shared" si="25"/>
+        <v>125.57449573412302</v>
       </c>
       <c r="FP20" s="1">
-        <f t="shared" si="23"/>
-        <v>125.23555273849057</v>
+        <f t="shared" si="25"/>
+        <v>124.31875077678178</v>
       </c>
       <c r="FQ20" s="1">
-        <f t="shared" si="23"/>
-        <v>123.98319721110566</v>
+        <f t="shared" si="25"/>
+        <v>123.07556326901397</v>
       </c>
       <c r="FR20" s="1">
-        <f t="shared" si="23"/>
-        <v>122.7433652389946</v>
+        <f t="shared" si="25"/>
+        <v>121.84480763632382</v>
       </c>
       <c r="FS20" s="1">
-        <f t="shared" si="23"/>
-        <v>121.51593158660465</v>
+        <f t="shared" si="25"/>
+        <v>120.62635955996058</v>
       </c>
       <c r="FT20" s="1">
-        <f t="shared" si="23"/>
-        <v>120.30077227073861</v>
+        <f t="shared" si="25"/>
+        <v>119.42009596436097</v>
       </c>
       <c r="FU20" s="1">
-        <f t="shared" si="23"/>
-        <v>119.09776454803122</v>
+        <f t="shared" si="25"/>
+        <v>118.22589500471736</v>
       </c>
       <c r="FV20" s="1">
-        <f t="shared" si="23"/>
-        <v>117.90678690255091</v>
+        <f t="shared" si="25"/>
+        <v>117.04363605467019</v>
       </c>
       <c r="FW20" s="1">
-        <f t="shared" si="23"/>
-        <v>116.72771903352539</v>
+        <f t="shared" si="25"/>
+        <v>115.87319969412349</v>
       </c>
       <c r="FX20" s="1">
-        <f t="shared" si="23"/>
-        <v>115.56044184319013</v>
+        <f t="shared" si="25"/>
+        <v>114.71446769718224</v>
       </c>
       <c r="FY20" s="1">
-        <f t="shared" si="23"/>
-        <v>114.40483742475823</v>
+        <f t="shared" si="25"/>
+        <v>113.56732302021042</v>
       </c>
       <c r="FZ20" s="1">
-        <f t="shared" si="23"/>
-        <v>113.26078905051064</v>
+        <f t="shared" si="25"/>
+        <v>112.43164979000832</v>
       </c>
       <c r="GA20" s="1">
-        <f t="shared" si="23"/>
-        <v>112.12818116000552</v>
+        <f t="shared" si="25"/>
+        <v>111.30733329210824</v>
       </c>
       <c r="GB20" s="1">
-        <f t="shared" si="23"/>
-        <v>111.00689934840547</v>
+        <f t="shared" si="25"/>
+        <v>110.19425995918715</v>
       </c>
       <c r="GC20" s="1">
-        <f t="shared" si="23"/>
-        <v>109.89683035492142</v>
+        <f t="shared" si="25"/>
+        <v>109.09231735959527</v>
       </c>
       <c r="GD20" s="1">
-        <f t="shared" si="23"/>
-        <v>108.79786205137221</v>
+        <f t="shared" si="25"/>
+        <v>108.00139418599932</v>
       </c>
       <c r="GE20" s="1">
-        <f t="shared" si="23"/>
-        <v>107.70988343085848</v>
+        <f t="shared" si="25"/>
+        <v>106.92138024413933</v>
       </c>
       <c r="GF20" s="1">
-        <f t="shared" si="23"/>
-        <v>106.6327845965499</v>
+        <f t="shared" si="25"/>
+        <v>105.85216644169793</v>
       </c>
       <c r="GG20" s="1">
-        <f t="shared" si="23"/>
-        <v>105.56645675058439</v>
+        <f t="shared" si="25"/>
+        <v>104.79364477728095</v>
       </c>
       <c r="GH20" s="1">
-        <f t="shared" si="23"/>
-        <v>104.51079218307855</v>
+        <f t="shared" si="25"/>
+        <v>103.74570832950813</v>
       </c>
       <c r="GI20" s="1">
-        <f t="shared" si="23"/>
-        <v>103.46568426124776</v>
+        <f t="shared" si="25"/>
+        <v>102.70825124621305</v>
       </c>
       <c r="GJ20" s="1">
-        <f t="shared" si="23"/>
-        <v>102.43102741863528</v>
+        <f t="shared" si="25"/>
+        <v>101.68116873375092</v>
       </c>
       <c r="GK20" s="1">
-        <f t="shared" si="23"/>
-        <v>101.40671714444893</v>
+        <f t="shared" si="25"/>
+        <v>100.66435704641341</v>
       </c>
       <c r="GL20" s="1">
-        <f t="shared" ref="GL20:HQ20" si="24">+GK20* ( 1 + $AK$32)</f>
-        <v>100.39264997300444</v>
+        <f t="shared" ref="GL20:HQ20" si="26">+GK20* ( 1 + $AK$32)</f>
+        <v>99.657713475949279</v>
       </c>
       <c r="GM20" s="1">
-        <f t="shared" si="24"/>
-        <v>99.388723473274396</v>
+        <f t="shared" si="26"/>
+        <v>98.661136341189788</v>
       </c>
       <c r="GN20" s="1">
-        <f t="shared" si="24"/>
-        <v>98.394836238541657</v>
+        <f t="shared" si="26"/>
+        <v>97.674524977777892</v>
       </c>
       <c r="GO20" s="1">
-        <f t="shared" si="24"/>
-        <v>97.410887876156238</v>
+        <f t="shared" si="26"/>
+        <v>96.697779728000114</v>
       </c>
       <c r="GP20" s="1">
-        <f t="shared" si="24"/>
-        <v>96.436778997394669</v>
+        <f t="shared" si="26"/>
+        <v>95.730801930720105</v>
       </c>
       <c r="GQ20" s="1">
-        <f t="shared" si="24"/>
-        <v>95.47241120742072</v>
+        <f t="shared" si="26"/>
+        <v>94.773493911412899</v>
       </c>
       <c r="GR20" s="1">
-        <f t="shared" si="24"/>
-        <v>94.517687095346517</v>
+        <f t="shared" si="26"/>
+        <v>93.825758972298772</v>
       </c>
       <c r="GS20" s="1">
-        <f t="shared" si="24"/>
-        <v>93.572510224393056</v>
+        <f t="shared" si="26"/>
+        <v>92.887501382575778</v>
       </c>
       <c r="GT20" s="1">
-        <f t="shared" si="24"/>
-        <v>92.636785122149121</v>
+        <f t="shared" si="26"/>
+        <v>91.958626368750018</v>
       </c>
       <c r="GU20" s="1">
-        <f t="shared" si="24"/>
-        <v>91.710417270927636</v>
+        <f t="shared" si="26"/>
+        <v>91.039040105062512</v>
       </c>
       <c r="GV20" s="1">
-        <f t="shared" si="24"/>
-        <v>90.793313098218363</v>
+        <f t="shared" si="26"/>
+        <v>90.128649704011892</v>
       </c>
       <c r="GW20" s="1">
-        <f t="shared" si="24"/>
-        <v>89.885379967236176</v>
+        <f t="shared" si="26"/>
+        <v>89.227363206971773</v>
       </c>
       <c r="GX20" s="1">
-        <f t="shared" si="24"/>
-        <v>88.98652616756381</v>
+        <f t="shared" si="26"/>
+        <v>88.335089574902057</v>
       </c>
       <c r="GY20" s="1">
-        <f t="shared" si="24"/>
-        <v>88.096660905888172</v>
+        <f t="shared" si="26"/>
+        <v>87.451738679153038</v>
       </c>
       <c r="GZ20" s="1">
-        <f t="shared" si="24"/>
-        <v>87.215694296829284</v>
+        <f t="shared" si="26"/>
+        <v>86.577221292361514</v>
       </c>
       <c r="HA20" s="1">
-        <f t="shared" si="24"/>
-        <v>86.343537353860995</v>
+        <f t="shared" si="26"/>
+        <v>85.711449079437898</v>
       </c>
       <c r="HB20" s="1">
-        <f t="shared" si="24"/>
-        <v>85.480101980322388</v>
+        <f t="shared" si="26"/>
+        <v>84.854334588643525</v>
       </c>
       <c r="HC20" s="1">
-        <f t="shared" si="24"/>
-        <v>84.625300960519169</v>
+        <f t="shared" si="26"/>
+        <v>84.005791242757084</v>
       </c>
       <c r="HD20" s="1">
-        <f t="shared" si="24"/>
-        <v>83.779047950913977</v>
+        <f t="shared" si="26"/>
+        <v>83.165733330329516</v>
       </c>
       <c r="HE20" s="1">
-        <f t="shared" si="24"/>
-        <v>82.941257471404839</v>
+        <f t="shared" si="26"/>
+        <v>82.334075997026218</v>
       </c>
       <c r="HF20" s="1">
-        <f t="shared" si="24"/>
-        <v>82.111844896690783</v>
+        <f t="shared" si="26"/>
+        <v>81.510735237055954</v>
       </c>
       <c r="HG20" s="1">
-        <f t="shared" si="24"/>
-        <v>81.29072644772387</v>
+        <f t="shared" si="26"/>
+        <v>80.695627884685393</v>
       </c>
       <c r="HH20" s="1">
-        <f t="shared" si="24"/>
-        <v>80.477819183246623</v>
+        <f t="shared" si="26"/>
+        <v>79.888671605838539</v>
       </c>
       <c r="HI20" s="1">
-        <f t="shared" si="24"/>
-        <v>79.673040991414155</v>
+        <f t="shared" si="26"/>
+        <v>79.089784889780148</v>
       </c>
       <c r="HJ20" s="1">
-        <f t="shared" si="24"/>
-        <v>78.876310581500007</v>
+        <f t="shared" si="26"/>
+        <v>78.298887040882349</v>
       </c>
       <c r="HK20" s="1">
-        <f t="shared" si="24"/>
-        <v>78.087547475685</v>
+        <f t="shared" si="26"/>
+        <v>77.51589817047352</v>
       </c>
       <c r="HL20" s="1">
-        <f t="shared" si="24"/>
-        <v>77.306672000928145</v>
+        <f t="shared" si="26"/>
+        <v>76.740739188768785</v>
       </c>
       <c r="HM20" s="1">
-        <f t="shared" si="24"/>
-        <v>76.533605280918863</v>
+        <f t="shared" si="26"/>
+        <v>75.973331796881098</v>
       </c>
       <c r="HN20" s="1">
-        <f t="shared" si="24"/>
-        <v>75.768269228109673</v>
+        <f t="shared" si="26"/>
+        <v>75.213598478912289</v>
       </c>
       <c r="HO20" s="1">
-        <f t="shared" si="24"/>
-        <v>75.01058653582858</v>
+        <f t="shared" si="26"/>
+        <v>74.461462494123168</v>
       </c>
       <c r="HP20" s="1">
-        <f t="shared" si="24"/>
-        <v>74.260480670470287</v>
+        <f t="shared" si="26"/>
+        <v>73.716847869181933</v>
       </c>
       <c r="HQ20" s="1">
-        <f t="shared" si="24"/>
-        <v>73.517875863765582</v>
+        <f t="shared" si="26"/>
+        <v>72.979679390490119</v>
       </c>
       <c r="HR20" s="1">
-        <f t="shared" ref="HR20:HY20" si="25">+HQ20* ( 1 + $AK$32)</f>
-        <v>72.782697105127923</v>
+        <f t="shared" ref="HR20:HY20" si="27">+HQ20* ( 1 + $AK$32)</f>
+        <v>72.249882596585223</v>
       </c>
       <c r="HS20" s="1">
-        <f t="shared" si="25"/>
-        <v>72.054870134076637</v>
+        <f t="shared" si="27"/>
+        <v>71.527383770619366</v>
       </c>
       <c r="HT20" s="1">
-        <f t="shared" si="25"/>
-        <v>71.334321432735877</v>
+        <f t="shared" si="27"/>
+        <v>70.812109932913174</v>
       </c>
       <c r="HU20" s="1">
-        <f t="shared" si="25"/>
-        <v>70.620978218408524</v>
+        <f t="shared" si="27"/>
+        <v>70.10398883358404</v>
       </c>
       <c r="HV20" s="1">
-        <f t="shared" si="25"/>
-        <v>69.914768436224435</v>
+        <f t="shared" si="27"/>
+        <v>69.402948945248198</v>
       </c>
       <c r="HW20" s="1">
-        <f t="shared" si="25"/>
-        <v>69.21562075186219</v>
+        <f t="shared" si="27"/>
+        <v>68.708919455795709</v>
       </c>
       <c r="HX20" s="1">
-        <f t="shared" si="25"/>
-        <v>68.523464544343568</v>
+        <f t="shared" si="27"/>
+        <v>68.021830261237753</v>
       </c>
       <c r="HY20" s="1">
-        <f t="shared" si="25"/>
-        <v>67.838229898900138</v>
+        <f t="shared" si="27"/>
+        <v>67.341611958625379</v>
       </c>
     </row>
     <row r="21" spans="2:233" s="6" customFormat="1">
@@ -3876,7 +3909,7 @@
         <v>9.49</v>
       </c>
       <c r="F21" s="6">
-        <f>+W21-SUM(C21:E21)</f>
+        <f t="shared" si="11"/>
         <v>15.409999999999997</v>
       </c>
       <c r="G21" s="6">
@@ -3917,43 +3950,43 @@
       </c>
       <c r="Y21" s="6">
         <f>+Y20/Y22</f>
-        <v>34.572712246353724</v>
+        <v>34.319618538409337</v>
       </c>
       <c r="Z21" s="6">
-        <f t="shared" ref="Z21:AG21" si="26">+Z20/Z22</f>
-        <v>33.189803756499565</v>
+        <f t="shared" ref="Z21:AG21" si="28">+Z20/Z22</f>
+        <v>32.946833796872959</v>
       </c>
       <c r="AA21" s="6">
-        <f t="shared" si="26"/>
-        <v>31.86221160623959</v>
+        <f t="shared" si="28"/>
+        <v>31.628960444998061</v>
       </c>
       <c r="AB21" s="6">
-        <f t="shared" si="26"/>
-        <v>30.587723141990033</v>
+        <f t="shared" si="28"/>
+        <v>30.363802027198144</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="26"/>
-        <v>29.364214216310394</v>
+        <f t="shared" si="28"/>
+        <v>29.149249946110171</v>
       </c>
       <c r="AD21" s="6">
-        <f t="shared" si="26"/>
-        <v>28.189645647657969</v>
+        <f t="shared" si="28"/>
+        <v>27.983279948265825</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="26"/>
-        <v>27.062059821751689</v>
+        <f t="shared" si="28"/>
+        <v>26.863948750335211</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="26"/>
-        <v>25.979577428881626</v>
+        <f t="shared" si="28"/>
+        <v>25.789390800321748</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="26"/>
-        <v>24.940394331726345</v>
+        <f t="shared" si="28"/>
+        <v>24.75781516830887</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" ref="AH21" si="27">+AH20/AH22</f>
-        <v>23.942778558457313</v>
+        <f t="shared" ref="AH21" si="29">+AH20/AH22</f>
+        <v>23.767502561576524</v>
       </c>
     </row>
     <row r="22" spans="2:233">
@@ -3961,27 +3994,27 @@
         <v>57</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:H22" si="28">+C20/C21</f>
+        <f t="shared" ref="C22:H22" si="30">+C20/C21</f>
         <v>20.712995780590713</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22.076315789473632</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>20.652581664910446</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>19.127579493835182</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>20.349323715058606</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>26.328104575163476</v>
       </c>
       <c r="I22" s="1">
@@ -3993,27 +4026,27 @@
         <v>18.968842729970319</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22" si="29">+K20/K21</f>
+        <f t="shared" ref="K22" si="31">+K20/K21</f>
         <v>20.038498556304127</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ref="R22:V22" si="30">+R20/R21</f>
+        <f t="shared" ref="R22:V22" si="32">+R20/R21</f>
         <v>63.257624398073801</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>71.492465753424682</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-48.952531645569493</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>24.763753581661916</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>20.842944302302708</v>
       </c>
       <c r="W22" s="1">
@@ -4029,39 +4062,39 @@
         <v>20.936121673003822</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" ref="Z22:AH22" si="31">+Y22</f>
+        <f t="shared" ref="Z22:AH22" si="33">+Y22</f>
         <v>20.936121673003822</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20.936121673003822</v>
       </c>
     </row>
@@ -4075,88 +4108,92 @@
         <v>16</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" ref="G25:K27" si="32">+G10/C10-1</f>
+        <f t="shared" ref="G25:L27" si="34">+G10/C10-1</f>
         <v>-2.2031657604921429E-2</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-4.9406747706518539E-2</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-3.3428793209253627E-2</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-5.0728546775838046E-2</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-1.3008609787540815E-2</v>
       </c>
+      <c r="L25" s="4">
+        <f t="shared" si="34"/>
+        <v>1.6015431514599943E-2</v>
+      </c>
       <c r="S25" s="4">
-        <f t="shared" ref="S25:W27" si="33">+S10/R10-1</f>
+        <f t="shared" ref="S25:W27" si="35">+S10/R10-1</f>
         <v>-2.4006668230516448E-2</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.30670087305271843</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.50968414713681676</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.8230156724333293E-2</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.732303839817928E-2</v>
       </c>
       <c r="X25" s="4">
-        <f t="shared" ref="X25:AH25" si="34">+X10/W10-1</f>
+        <f t="shared" ref="X25:AH25" si="36">+X10/W10-1</f>
         <v>-3.9901493664223242E-2</v>
       </c>
       <c r="Y25" s="4">
-        <f t="shared" si="34"/>
-        <v>-5.6618326248766726E-2</v>
+        <f t="shared" si="36"/>
+        <v>-6.3606224381563381E-2</v>
       </c>
       <c r="Z25" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AD25" s="4">
+        <f t="shared" si="36"/>
         <v>-3.9999999999999925E-2</v>
       </c>
-      <c r="AA25" s="4">
-        <f t="shared" si="34"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="AB25" s="4">
-        <f t="shared" si="34"/>
+      <c r="AE25" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AF25" s="4">
+        <f t="shared" si="36"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AC25" s="4">
-        <f t="shared" si="34"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="AD25" s="4">
-        <f t="shared" si="34"/>
+      <c r="AG25" s="4">
+        <f t="shared" si="36"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AE25" s="4">
-        <f t="shared" si="34"/>
+      <c r="AH25" s="4">
+        <f t="shared" si="36"/>
         <v>-4.0000000000000147E-2</v>
-      </c>
-      <c r="AF25" s="4">
-        <f t="shared" si="34"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="AG25" s="4">
-        <f t="shared" si="34"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AH25" s="4">
-        <f t="shared" si="34"/>
-        <v>-4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="26" spans="2:233" s="4" customFormat="1">
@@ -4164,88 +4201,92 @@
         <v>22</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-0.20698287659801728</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-0.17752405046436548</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-0.13350315729047069</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.4639802869981011E-2</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-0.23815135954204891</v>
       </c>
+      <c r="L26" s="4">
+        <f t="shared" si="34"/>
+        <v>-0.1015055852355512</v>
+      </c>
       <c r="S26" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.1270035316490103E-2</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-5.2981222841843811E-2</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-7.6800967571244438E-3</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-4.6772399713576163E-2</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.2112295619096334E-2</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26:AH26" si="35">+X11/W11-1</f>
+        <f t="shared" ref="X26:AH26" si="37">+X11/W11-1</f>
         <v>-0.12071882125082745</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-0.32710627817277749</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AD26" s="4">
+        <f t="shared" si="37"/>
         <v>-3.9999999999999925E-2</v>
       </c>
-      <c r="AB26" s="4">
-        <f t="shared" si="35"/>
+      <c r="AE26" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AF26" s="4">
+        <f t="shared" si="37"/>
         <v>-3.9999999999999925E-2</v>
       </c>
-      <c r="AC26" s="4">
-        <f t="shared" si="35"/>
+      <c r="AG26" s="4">
+        <f t="shared" si="37"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AH26" s="4">
+        <f t="shared" si="37"/>
         <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AD26" s="4">
-        <f t="shared" si="35"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="AE26" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.0000000000000147E-2</v>
-      </c>
-      <c r="AF26" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="35"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AH26" s="4">
-        <f t="shared" si="35"/>
-        <v>-3.9999999999999925E-2</v>
       </c>
     </row>
     <row r="27" spans="2:233" s="4" customFormat="1">
@@ -4253,88 +4294,92 @@
         <v>23</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-2.5464912166562326E-2</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-5.1816118260843202E-2</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-3.5283074308917417E-2</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-4.9684069516286566E-2</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-1.6409494096231603E-2</v>
       </c>
+      <c r="L27" s="4">
+        <f t="shared" si="34"/>
+        <v>1.4098343771415722E-2</v>
+      </c>
       <c r="S27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-2.4623928379055138E-2</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-0.30111342662257334</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.4942455593439028</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.6149306783678687E-2</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.740869884644769E-2</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" ref="X27:AH27" si="36">+X12/W12-1</f>
+        <f t="shared" ref="X27:AH27" si="38">+X12/W12-1</f>
         <v>-4.1340069416765268E-2</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="36"/>
-        <v>-6.1034431114781906E-2</v>
+        <f t="shared" si="38"/>
+        <v>-6.790824175965926E-2</v>
       </c>
       <c r="Z27" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="AA27" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AB27" s="4">
+        <f t="shared" si="38"/>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="AC27" s="4">
+        <f t="shared" si="38"/>
+        <v>-4.0000000000000147E-2</v>
+      </c>
+      <c r="AD27" s="4">
+        <f t="shared" si="38"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AB27" s="4">
-        <f t="shared" si="36"/>
-        <v>-3.9999999999999925E-2</v>
-      </c>
-      <c r="AC27" s="4">
-        <f t="shared" si="36"/>
+      <c r="AE27" s="4">
+        <f t="shared" si="38"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AD27" s="4">
-        <f t="shared" si="36"/>
+      <c r="AF27" s="4">
+        <f t="shared" si="38"/>
         <v>-4.0000000000000147E-2</v>
       </c>
-      <c r="AE27" s="4">
-        <f t="shared" si="36"/>
+      <c r="AG27" s="4">
+        <f t="shared" si="38"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="AF27" s="4">
-        <f t="shared" si="36"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="36"/>
-        <v>-4.0000000000000036E-2</v>
-      </c>
       <c r="AH27" s="4">
-        <f t="shared" si="36"/>
-        <v>-3.9999999999999925E-2</v>
+        <f t="shared" si="38"/>
+        <v>-4.0000000000000147E-2</v>
       </c>
     </row>
     <row r="28" spans="2:233" s="4" customFormat="1">
@@ -4346,27 +4391,27 @@
         <v>0.44776185988411982</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ref="D28:I28" si="37">(D12-D13)/D12</f>
+        <f t="shared" ref="D28:I28" si="39">(D12-D13)/D12</f>
         <v>0.39975948687193952</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.44520799290535917</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.37630305980792628</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.45459048110736899</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.38577661050833006</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.43540822514402278</v>
       </c>
       <c r="J28" s="4">
@@ -4378,105 +4423,105 @@
         <v>0.44557207498383966</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28:W28" si="38">(R12-R13)/R12</f>
+        <f t="shared" ref="R28:W28" si="40">(R12-R13)/R12</f>
         <v>0.34010615146134704</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.33220288588855079</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.30770698718866912</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.43425212178192701</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.43060669233292576</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.41360754798222976</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" ref="X28:AG28" si="39">(X12-X13)/X12</f>
+        <f t="shared" ref="X28:AG28" si="41">(X12-X13)/X12</f>
         <v>0.40524861723359928</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
+        <v>0.40524861723359928</v>
+      </c>
+      <c r="Z28" s="4">
+        <f t="shared" si="41"/>
+        <v>0.40524861723359928</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="41"/>
+        <v>0.40524861723359928</v>
+      </c>
+      <c r="AB28" s="4">
+        <f t="shared" si="41"/>
+        <v>0.40524861723359928</v>
+      </c>
+      <c r="AC28" s="4">
+        <f t="shared" si="41"/>
         <v>0.40524861723359923</v>
       </c>
-      <c r="Z28" s="4">
-        <f t="shared" si="39"/>
+      <c r="AD28" s="4">
+        <f t="shared" si="41"/>
         <v>0.40524861723359928</v>
       </c>
-      <c r="AA28" s="4">
-        <f t="shared" si="39"/>
-        <v>0.40524861723359934</v>
-      </c>
-      <c r="AB28" s="4">
-        <f t="shared" si="39"/>
+      <c r="AE28" s="4">
+        <f t="shared" si="41"/>
         <v>0.40524861723359928</v>
       </c>
-      <c r="AC28" s="4">
-        <f t="shared" si="39"/>
+      <c r="AF28" s="4">
+        <f t="shared" si="41"/>
         <v>0.40524861723359928</v>
       </c>
-      <c r="AD28" s="4">
-        <f t="shared" si="39"/>
+      <c r="AG28" s="4">
+        <f t="shared" si="41"/>
         <v>0.40524861723359923</v>
       </c>
-      <c r="AE28" s="4">
-        <f t="shared" si="39"/>
+      <c r="AH28" s="4">
+        <f t="shared" ref="AH28" si="42">(AH12-AH13)/AH12</f>
         <v>0.40524861723359928</v>
-      </c>
-      <c r="AF28" s="4">
-        <f t="shared" si="39"/>
-        <v>0.40524861723359934</v>
-      </c>
-      <c r="AG28" s="4">
-        <f t="shared" si="39"/>
-        <v>0.40524861723359923</v>
-      </c>
-      <c r="AH28" s="4">
-        <f t="shared" ref="AH28" si="40">(AH12-AH13)/AH12</f>
-        <v>0.40524861723359934</v>
       </c>
     </row>
     <row r="29" spans="2:233" s="4" customFormat="1">
       <c r="C29" s="4">
-        <f t="shared" ref="C29:K29" si="41">+C18/C12</f>
+        <f t="shared" ref="C29:J29" si="43">+C18/C12</f>
         <v>0.19026437087143183</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.1353740849295548</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.15957158261281165</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.15136963426547614</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.17830772840185932</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.4725764304002605E-2</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.14221726067421947</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.13482160265158896</v>
       </c>
       <c r="K29" s="4">
@@ -4490,87 +4535,103 @@
         <v>58</v>
       </c>
       <c r="D32" s="3">
-        <f>+SUM(D33,D35) - SUM(D48)</f>
+        <f>+SUM(D33,D35) - SUM(D49)</f>
         <v>603.08699999999999</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ref="E32:K32" si="42">+SUM(E33,E35) - SUM(E48)</f>
+        <f t="shared" ref="E32:K32" si="44">+SUM(E33,E35) - SUM(E49)</f>
         <v>571.82399999999984</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>634.86200000000008</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>843.33799999999997</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>748.96500000000003</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>787.72600000000011</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>721.99999999999989</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>837.4</v>
       </c>
+      <c r="S32" s="1">
+        <f>SUM(S33,S35)-S46-S49-S53</f>
+        <v>-442.06</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32:X32" si="45">SUM(T33,T35)-T46-T49-T53</f>
+        <v>-288.63200000000001</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="45"/>
+        <v>-205.51</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="45"/>
+        <v>150.71200000000005</v>
+      </c>
       <c r="W32" s="1">
-        <f>+I32</f>
-        <v>787.72600000000011</v>
+        <f t="shared" si="45"/>
+        <v>434.86200000000008</v>
       </c>
       <c r="X32" s="1">
-        <f>+W32*1.01</f>
-        <v>795.60326000000009</v>
+        <f t="shared" si="45"/>
+        <v>521.99999999999989</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" ref="Y32:AH32" si="43">+X32*1.01</f>
-        <v>803.55929260000005</v>
+        <f>+K32</f>
+        <v>837.4</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="43"/>
-        <v>811.5948855260001</v>
+        <f t="shared" ref="Z32:AH32" si="46">+Y32*1.01</f>
+        <v>845.774</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="43"/>
-        <v>819.71083438126016</v>
+        <f t="shared" si="46"/>
+        <v>854.23174000000006</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="43"/>
-        <v>827.90794272507276</v>
+        <f t="shared" si="46"/>
+        <v>862.77405740000006</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="43"/>
-        <v>836.18702215232349</v>
+        <f t="shared" si="46"/>
+        <v>871.40179797400003</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="43"/>
-        <v>844.54889237384668</v>
+        <f t="shared" si="46"/>
+        <v>880.11581595374003</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="43"/>
-        <v>852.99438129758516</v>
+        <f t="shared" si="46"/>
+        <v>888.91697411327743</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="43"/>
-        <v>861.52432511056099</v>
+        <f t="shared" si="46"/>
+        <v>897.80614385441027</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="43"/>
-        <v>870.13956836166665</v>
+        <f t="shared" si="46"/>
+        <v>906.78420529295443</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="43"/>
-        <v>878.84096404528327</v>
+        <f t="shared" si="46"/>
+        <v>915.85204734588399</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK32" s="8">
         <v>-0.01</v>
@@ -4604,11 +4665,34 @@
       <c r="K33" s="1">
         <v>900.5</v>
       </c>
+      <c r="S33" s="1">
+        <v>123.509</v>
+      </c>
+      <c r="T33" s="1">
+        <v>277.077</v>
+      </c>
+      <c r="U33" s="1">
+        <v>360.339</v>
+      </c>
+      <c r="V33" s="1">
+        <v>716.75900000000001</v>
+      </c>
+      <c r="W33" s="1">
+        <v>808.28700000000003</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" ref="X33:X55" si="47">+J33</f>
+        <v>717.9</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" ref="Y33:Y55" si="48">+K33</f>
+        <v>900.5</v>
+      </c>
       <c r="AJ33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK33" s="9">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="2:37">
@@ -4639,12 +4723,35 @@
       <c r="K34" s="1">
         <v>56.9</v>
       </c>
+      <c r="S34" s="1">
+        <v>49.853000000000002</v>
+      </c>
+      <c r="T34" s="1">
+        <v>46.16</v>
+      </c>
+      <c r="U34" s="1">
+        <v>36.692999999999998</v>
+      </c>
+      <c r="V34" s="1">
+        <v>39.777000000000001</v>
+      </c>
+      <c r="W34" s="1">
+        <v>60.546999999999997</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="47"/>
+        <v>55.7</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="48"/>
+        <v>56.9</v>
+      </c>
       <c r="AJ34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AK34" s="1">
-        <f>NPV(AK33,Y20:HZ20)</f>
-        <v>5584.2626503206084</v>
+        <f>NPV(AK33,Y20:HY20)</f>
+        <v>7454.7049277382421</v>
       </c>
     </row>
     <row r="35" spans="2:37">
@@ -4675,12 +4782,35 @@
       <c r="K35" s="1">
         <v>258.5</v>
       </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>148.036</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="47"/>
+        <v>325.7</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="48"/>
+        <v>258.5</v>
+      </c>
       <c r="AJ35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK35" s="1">
-        <f>+K32</f>
-        <v>837.4</v>
+        <f>+Main!G4</f>
+        <v>15.6</v>
       </c>
     </row>
     <row r="36" spans="2:37">
@@ -4711,12 +4841,35 @@
       <c r="K36" s="1">
         <v>1469.3</v>
       </c>
+      <c r="S36" s="1">
+        <v>1528.4169999999999</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1465.0070000000001</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1087.7629999999999</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1080.1780000000001</v>
+      </c>
+      <c r="W36" s="1">
+        <v>1093.999</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="47"/>
+        <v>1172</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="48"/>
+        <v>1469.3</v>
+      </c>
       <c r="AJ36" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AK36" s="1">
-        <f>+SUM(AK34:AK35)</f>
-        <v>6421.662650320608</v>
+        <f>+AK34/AK35</f>
+        <v>477.86570049604114</v>
       </c>
     </row>
     <row r="37" spans="2:37">
@@ -4738,12 +4891,35 @@
       <c r="K37" s="1">
         <v>0</v>
       </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>118.43899999999999</v>
+      </c>
+      <c r="V37" s="1">
+        <v>118.43899999999999</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="AJ37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AK37" s="1">
-        <f>+Main!G4</f>
-        <v>15.904664</v>
+        <f>+Main!G3</f>
+        <v>395.96</v>
       </c>
     </row>
     <row r="38" spans="2:37">
@@ -4774,12 +4950,35 @@
       <c r="K38" s="1">
         <v>82.9</v>
       </c>
+      <c r="S38" s="1">
+        <v>68.753</v>
+      </c>
+      <c r="T38" s="1">
+        <v>59.838000000000001</v>
+      </c>
+      <c r="U38" s="1">
+        <v>58.706000000000003</v>
+      </c>
+      <c r="V38" s="1">
+        <v>58.706000000000003</v>
+      </c>
+      <c r="W38" s="1">
+        <v>97.340999999999994</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="47"/>
+        <v>96.8</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="48"/>
+        <v>82.9</v>
+      </c>
       <c r="AJ38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK38" s="1">
-        <f>+AK36/AK37</f>
-        <v>403.75971792428987</v>
+        <v>61</v>
+      </c>
+      <c r="AK38" s="4">
+        <f>+AK36/AK37-1</f>
+        <v>0.20685347130023524</v>
       </c>
     </row>
     <row r="39" spans="2:37">
@@ -4810,12 +5009,28 @@
       <c r="K39" s="1">
         <v>976</v>
       </c>
-      <c r="AJ39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK39" s="1">
-        <f>+Main!G3</f>
-        <v>395.96</v>
+      <c r="S39" s="1">
+        <v>1586.7329999999999</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1458.1759999999999</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1289.3019999999999</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1074.3040000000001</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1074.3040000000001</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="47"/>
+        <v>1002.2</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="48"/>
+        <v>976</v>
       </c>
     </row>
     <row r="40" spans="2:37">
@@ -4846,12 +5061,28 @@
       <c r="K40" s="1">
         <v>32.5</v>
       </c>
-      <c r="AJ40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK40" s="4">
-        <f>+AK38/AK39-1</f>
-        <v>1.9698247106500366E-2</v>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>47.923999999999999</v>
+      </c>
+      <c r="U40" s="1">
+        <v>47.612000000000002</v>
+      </c>
+      <c r="V40" s="1">
+        <v>42.680999999999997</v>
+      </c>
+      <c r="W40" s="1">
+        <v>42.680999999999997</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="47"/>
+        <v>33.6</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="48"/>
+        <v>32.5</v>
       </c>
     </row>
     <row r="41" spans="2:37">
@@ -4882,6 +5113,36 @@
       <c r="K41" s="1">
         <v>71.3</v>
       </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>23.452999999999999</v>
+      </c>
+      <c r="V41" s="1">
+        <v>63.951000000000001</v>
+      </c>
+      <c r="W41" s="1">
+        <v>63.951000000000001</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="47"/>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="48"/>
+        <v>71.3</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK41" s="11">
+        <f>+Main!G8 / X20</f>
+        <v>6.8582117820430923</v>
+      </c>
     </row>
     <row r="42" spans="2:37">
       <c r="B42" s="1" t="s">
@@ -4911,58 +5172,108 @@
       <c r="K42" s="1">
         <v>59.1</v>
       </c>
+      <c r="S42" s="1">
+        <v>74.103999999999999</v>
+      </c>
+      <c r="T42" s="1">
+        <v>76.075000000000003</v>
+      </c>
+      <c r="U42" s="1">
+        <v>70.207999999999998</v>
+      </c>
+      <c r="V42" s="1">
+        <v>68.882999999999996</v>
+      </c>
+      <c r="W42" s="1">
+        <v>59.76</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="47"/>
+        <v>58.1</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="48"/>
+        <v>59.1</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK42" s="10">
+        <f>+Main!G8 / Y20</f>
+        <v>7.3578719277493043</v>
+      </c>
     </row>
     <row r="43" spans="2:37" s="3" customFormat="1">
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:K43" si="44">+SUM(D33:D42)</f>
+        <f t="shared" ref="D43:K43" si="49">+SUM(D33:D42)</f>
         <v>3512.3620000000005</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3897.9340000000002</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3448.9060000000004</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3936.9920000000002</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3661.8620000000001</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>4133.0620000000008</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3531.1</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>3907</v>
       </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12">
+        <f t="shared" ref="S43:T43" si="50">+SUM(S33:S42)</f>
+        <v>3431.3689999999997</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" si="50"/>
+        <v>3430.2569999999996</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" ref="U43:V43" si="51">+SUM(U33:U42)</f>
+        <v>3092.5149999999999</v>
+      </c>
+      <c r="V43" s="12">
+        <f t="shared" si="51"/>
+        <v>3263.6780000000003</v>
+      </c>
+      <c r="W43" s="12">
+        <f t="shared" ref="W43:Y43" si="52">+SUM(W33:W42)</f>
+        <v>3448.9060000000004</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="52"/>
+        <v>3531.1</v>
+      </c>
+      <c r="Y43" s="12">
+        <f t="shared" si="52"/>
+        <v>3907</v>
+      </c>
       <c r="AJ43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK43" s="11">
-        <f>+Main!G8 / X20</f>
-        <v>7.4923965678170523</v>
-      </c>
-    </row>
-    <row r="44" spans="2:37">
-      <c r="AJ44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AK44" s="10">
-        <f>+Main!G8 / Y20</f>
-        <v>7.9794156634650211</v>
+      <c r="AK43" s="10">
+        <f>+Main!G8 / X12</f>
+        <v>0.8022140650304973</v>
       </c>
     </row>
     <row r="45" spans="2:37">
@@ -4993,566 +5304,1058 @@
       <c r="K45" s="1">
         <v>1056.7</v>
       </c>
-      <c r="AJ45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK45" s="10">
-        <f>+Main!G8 / X12</f>
-        <v>0.87639549470117206</v>
-      </c>
+      <c r="S45" s="1">
+        <v>921.20500000000004</v>
+      </c>
+      <c r="T45" s="1">
+        <v>892.78899999999999</v>
+      </c>
+      <c r="U45" s="1">
+        <v>758.36300000000006</v>
+      </c>
+      <c r="V45" s="1">
+        <v>886.23299999999995</v>
+      </c>
+      <c r="W45" s="1">
+        <v>782.54499999999996</v>
+      </c>
+      <c r="X45" s="1">
+        <f t="shared" si="47"/>
+        <v>795</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="48"/>
+        <v>1056.7</v>
+      </c>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="10"/>
     </row>
     <row r="46" spans="2:37">
       <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1">
-        <v>8.0470000000000006</v>
-      </c>
-      <c r="E46" s="1">
-        <v>8.4610000000000003</v>
-      </c>
-      <c r="F46" s="1">
-        <v>11.252000000000001</v>
-      </c>
-      <c r="G46" s="1">
-        <v>11.596</v>
-      </c>
-      <c r="H46" s="1">
-        <v>11.535</v>
-      </c>
-      <c r="I46" s="1">
-        <v>11.721</v>
-      </c>
-      <c r="J46" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="K46" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="AJ46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK46" s="10">
-        <f>+Main!G8 / Y12</f>
-        <v>0.93336275976729166</v>
+        <v>74</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>44.8</v>
       </c>
     </row>
     <row r="47" spans="2:37">
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="1">
-        <v>115.633</v>
+        <v>8.0470000000000006</v>
       </c>
       <c r="E47" s="1">
-        <v>12.5</v>
+        <v>8.4610000000000003</v>
       </c>
       <c r="F47" s="1">
-        <v>33.959000000000003</v>
+        <v>11.252000000000001</v>
       </c>
       <c r="G47" s="1">
-        <v>87.369</v>
+        <v>11.596</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>11.535</v>
       </c>
       <c r="I47" s="1">
-        <v>10.029999999999999</v>
+        <v>11.721</v>
       </c>
       <c r="J47" s="1">
-        <v>28.5</v>
+        <v>11.4</v>
       </c>
       <c r="K47" s="1">
-        <v>79.3</v>
+        <v>10.8</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1.214</v>
+      </c>
+      <c r="T47" s="1">
+        <f>1.219+14.654</f>
+        <v>15.872999999999999</v>
+      </c>
+      <c r="U47" s="1">
+        <v>13.819000000000001</v>
+      </c>
+      <c r="V47" s="1">
+        <v>11.712</v>
+      </c>
+      <c r="W47" s="1">
+        <v>11.252000000000001</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" si="47"/>
+        <v>11.4</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="48"/>
+        <v>10.8</v>
       </c>
       <c r="AJ47" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK47" s="10">
-        <f>+Main!G8 / I52</f>
-        <v>2.9416641875119378</v>
+        <f>+Main!G8 / Y12</f>
+        <v>0.86065997037133513</v>
       </c>
     </row>
     <row r="48" spans="2:37">
       <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1">
+        <v>115.633</v>
+      </c>
+      <c r="E48" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>33.959000000000003</v>
+      </c>
+      <c r="G48" s="1">
+        <v>87.369</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="S48" s="1">
+        <v>11.116</v>
+      </c>
+      <c r="T48" s="1">
+        <v>22.158000000000001</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="V48" s="1">
+        <v>23.440999999999999</v>
+      </c>
+      <c r="W48" s="1">
+        <v>33.959000000000003</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" si="47"/>
+        <v>28.5</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="48"/>
+        <v>79.3</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK48" s="10">
+        <f>+Main!G8 / I54</f>
+        <v>2.6926706037246708</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>321.40699999999998</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>321.43400000000003</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F49" s="1">
         <v>321.46100000000001</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <v>321.48700000000002</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <v>321.51400000000001</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="1">
         <v>321.541</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49" s="1">
         <v>321.60000000000002</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K49" s="1">
         <v>321.60000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="2:23">
-      <c r="B49" s="1" t="s">
+      <c r="S49" s="1">
+        <v>365.56900000000002</v>
+      </c>
+      <c r="T49" s="1">
+        <v>365.709</v>
+      </c>
+      <c r="U49" s="1">
+        <v>365.84899999999999</v>
+      </c>
+      <c r="V49" s="1">
+        <v>321.24700000000001</v>
+      </c>
+      <c r="W49" s="1">
+        <v>321.46100000000001</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" si="47"/>
+        <v>321.60000000000002</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="48"/>
+        <v>321.60000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D50" s="1">
         <v>22.291</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>26.245999999999999</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F50" s="1">
         <v>31.728000000000002</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <v>30.297000000000001</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>27.44</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I50" s="1">
         <v>24.338000000000001</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>22.3</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K50" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="50" spans="2:23">
-      <c r="B50" s="1" t="s">
+      <c r="S50" s="1">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="T50" s="1">
+        <f>0.695+32.683</f>
+        <v>33.378</v>
+      </c>
+      <c r="U50" s="1">
+        <v>33.392000000000003</v>
+      </c>
+      <c r="V50" s="1">
+        <v>30.969000000000001</v>
+      </c>
+      <c r="W50" s="1">
+        <v>31.728000000000002</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="47"/>
+        <v>22.3</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="48"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25">
+      <c r="B51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>332.32600000000002</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>334.45699999999999</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>370.89299999999997</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G51" s="1">
         <v>380.09</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <v>383.69400000000002</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I51" s="1">
         <v>387.05500000000001</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J51" s="1">
         <v>356.1</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K51" s="1">
         <v>359.2</v>
       </c>
-    </row>
-    <row r="51" spans="2:23">
-      <c r="B51" s="1" t="s">
+      <c r="S51" s="1">
+        <v>238.73099999999999</v>
+      </c>
+      <c r="T51" s="1">
+        <v>273.601</v>
+      </c>
+      <c r="U51" s="1">
+        <v>279.38900000000001</v>
+      </c>
+      <c r="V51" s="1">
+        <v>275.93700000000001</v>
+      </c>
+      <c r="W51" s="1">
+        <v>370.89299999999997</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="47"/>
+        <v>356.1</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="48"/>
+        <v>359.2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25">
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S52" s="1">
+        <v>13.487</v>
+      </c>
+      <c r="T52" s="1">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D53" s="1">
         <v>200</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E53" s="1">
         <v>200</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F53" s="1">
         <v>200</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G53" s="1">
         <v>200</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H53" s="1">
         <v>200</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I53" s="1">
         <v>200</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J53" s="1">
         <v>200</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K53" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="2:23">
-      <c r="B52" s="1" t="s">
+      <c r="S53" s="1">
+        <v>200</v>
+      </c>
+      <c r="T53" s="1">
+        <v>200</v>
+      </c>
+      <c r="U53" s="1">
+        <v>200</v>
+      </c>
+      <c r="V53" s="1">
+        <v>200</v>
+      </c>
+      <c r="W53" s="1">
+        <v>200</v>
+      </c>
+      <c r="X53" s="1">
+        <f t="shared" si="47"/>
+        <v>200</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="48"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D54" s="1">
         <v>1709.5160000000001</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E54" s="1">
         <v>1813.6379999999999</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F54" s="1">
         <v>1697.068</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G54" s="1">
         <v>1874.992</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H54" s="1">
         <v>1948.921</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I54" s="1">
         <v>1963.395</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J54" s="1">
         <v>1796.2</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K54" s="1">
         <v>1857.9</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" s="3" customFormat="1">
-      <c r="B53" s="3" t="s">
+      <c r="S54" s="1">
+        <v>1678.3810000000001</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1623.259</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1441.008</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1451.2180000000001</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1697.068</v>
+      </c>
+      <c r="X54" s="1">
+        <f t="shared" si="47"/>
+        <v>1796.2</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="48"/>
+        <v>1857.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" s="3" customFormat="1">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="3">
-        <f t="shared" ref="D53:K53" si="45">+SUM(D45:D52)</f>
+      <c r="D55" s="3">
+        <f t="shared" ref="D55:K55" si="53">+SUM(D45:D54)</f>
         <v>3512.3620000000001</v>
       </c>
-      <c r="E53" s="3">
-        <f t="shared" si="45"/>
+      <c r="E55" s="3">
+        <f t="shared" si="53"/>
         <v>3897.9340000000002</v>
       </c>
-      <c r="F53" s="3">
-        <f t="shared" si="45"/>
+      <c r="F55" s="3">
+        <f t="shared" si="53"/>
         <v>3448.9059999999999</v>
       </c>
-      <c r="G53" s="3">
-        <f t="shared" si="45"/>
+      <c r="G55" s="3">
+        <f t="shared" si="53"/>
         <v>3937.1559999999999</v>
       </c>
-      <c r="H53" s="3">
-        <f t="shared" si="45"/>
+      <c r="H55" s="3">
+        <f t="shared" si="53"/>
         <v>3661.8620000000001</v>
       </c>
-      <c r="I53" s="3">
-        <f t="shared" si="45"/>
+      <c r="I55" s="3">
+        <f t="shared" si="53"/>
         <v>4133.0619999999999</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="45"/>
+      <c r="J55" s="3">
+        <f t="shared" si="53"/>
         <v>3531.1000000000004</v>
       </c>
-      <c r="K53" s="3">
-        <f t="shared" si="45"/>
+      <c r="K55" s="3">
+        <f t="shared" si="53"/>
         <v>3907.0000000000005</v>
       </c>
-    </row>
-    <row r="56" spans="2:23">
-      <c r="B56" s="1" t="s">
+      <c r="S55" s="12">
+        <f t="shared" ref="S55:U55" si="54">+SUM(S45:S54)</f>
+        <v>3431.3690000000001</v>
+      </c>
+      <c r="T55" s="12">
+        <f t="shared" si="54"/>
+        <v>3430.2569999999996</v>
+      </c>
+      <c r="U55" s="12">
+        <f t="shared" si="54"/>
+        <v>3092.5150000000003</v>
+      </c>
+      <c r="V55" s="12">
+        <f t="shared" ref="V55:W55" si="55">+SUM(V45:V54)</f>
+        <v>3245.5569999999998</v>
+      </c>
+      <c r="W55" s="12">
+        <f t="shared" si="55"/>
+        <v>3448.9059999999999</v>
+      </c>
+      <c r="X55" s="1">
+        <f t="shared" si="47"/>
+        <v>3531.1000000000004</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="48"/>
+        <v>3907.0000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM(D46,D49,D53)</f>
+        <v>521.40699999999993</v>
+      </c>
+      <c r="E57" s="1">
+        <f>SUM(E46,E49,E53)</f>
+        <v>521.43399999999997</v>
+      </c>
+      <c r="F57" s="1">
+        <f>SUM(F46,F49,F53)</f>
+        <v>521.46100000000001</v>
+      </c>
+      <c r="G57" s="1">
+        <f>SUM(G46,G49,G53)</f>
+        <v>521.48700000000008</v>
+      </c>
+      <c r="H57" s="1">
+        <f>SUM(H46,H49,H53)</f>
+        <v>521.51400000000001</v>
+      </c>
+      <c r="I57" s="1">
+        <f>SUM(I46,I49,I53)</f>
+        <v>521.54099999999994</v>
+      </c>
+      <c r="J57" s="1">
+        <f>SUM(J46,J49,J53)</f>
+        <v>521.6</v>
+      </c>
+      <c r="K57" s="1">
+        <f>SUM(K46,K49,K53)</f>
+        <v>521.6</v>
+      </c>
+      <c r="S57" s="1">
+        <f>SUM(S46,S49,S53)</f>
+        <v>565.56899999999996</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" ref="T57:X57" si="56">SUM(T46,T49,T53)</f>
+        <v>565.70900000000006</v>
+      </c>
+      <c r="U57" s="1">
+        <f t="shared" si="56"/>
+        <v>565.84899999999993</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" si="56"/>
+        <v>566.04700000000003</v>
+      </c>
+      <c r="W57" s="1">
+        <f t="shared" si="56"/>
+        <v>521.46100000000001</v>
+      </c>
+      <c r="X57" s="1">
+        <f t="shared" si="56"/>
+        <v>521.6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25">
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="1">
+        <f>+D57+D54</f>
+        <v>2230.9229999999998</v>
+      </c>
+      <c r="E58" s="1">
+        <f>+E57+E54</f>
+        <v>2335.0720000000001</v>
+      </c>
+      <c r="F58" s="1">
+        <f>+F57+F54</f>
+        <v>2218.529</v>
+      </c>
+      <c r="G58" s="1">
+        <f>+G57+G54</f>
+        <v>2396.4790000000003</v>
+      </c>
+      <c r="H58" s="1">
+        <f>+H57+H54</f>
+        <v>2470.4349999999999</v>
+      </c>
+      <c r="I58" s="1">
+        <f>+I57+I54</f>
+        <v>2484.9359999999997</v>
+      </c>
+      <c r="J58" s="1">
+        <f>+J57+J54</f>
+        <v>2317.8000000000002</v>
+      </c>
+      <c r="K58" s="1">
+        <f>+K57+K54</f>
+        <v>2379.5</v>
+      </c>
+      <c r="S58" s="1">
+        <f>+S57+S54</f>
+        <v>2243.9499999999998</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" ref="T58:X58" si="57">+T57+T54</f>
+        <v>2188.9679999999998</v>
+      </c>
+      <c r="U58" s="1">
+        <f t="shared" si="57"/>
+        <v>2006.857</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" si="57"/>
+        <v>2017.2650000000001</v>
+      </c>
+      <c r="W58" s="1">
+        <f t="shared" si="57"/>
+        <v>2218.529</v>
+      </c>
+      <c r="X58" s="1">
+        <f t="shared" si="57"/>
+        <v>2317.8000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25">
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="4">
+        <f>+D57/D58</f>
+        <v>0.23371806198600309</v>
+      </c>
+      <c r="E59" s="4">
+        <f>+E57/E58</f>
+        <v>0.22330531992161268</v>
+      </c>
+      <c r="F59" s="4">
+        <f>+F57/F58</f>
+        <v>0.23504808817013437</v>
+      </c>
+      <c r="G59" s="4">
+        <f>+G57/G58</f>
+        <v>0.21760549539553656</v>
+      </c>
+      <c r="H59" s="4">
+        <f>+H57/H58</f>
+        <v>0.21110209335602839</v>
+      </c>
+      <c r="I59" s="4">
+        <f>+I57/I58</f>
+        <v>0.20988105931098427</v>
+      </c>
+      <c r="J59" s="4">
+        <f>+J57/J58</f>
+        <v>0.2250409871429804</v>
+      </c>
+      <c r="K59" s="4">
+        <f>+K57/K58</f>
+        <v>0.21920571548644674</v>
+      </c>
+      <c r="S59" s="4">
+        <f>+S57/S58</f>
+        <v>0.25204171215936183</v>
+      </c>
+      <c r="T59" s="4">
+        <f t="shared" ref="T59:X59" si="58">+T57/T58</f>
+        <v>0.25843639559829112</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="58"/>
+        <v>0.28195780765644984</v>
+      </c>
+      <c r="V59" s="4">
+        <f t="shared" si="58"/>
+        <v>0.28060121005420707</v>
+      </c>
+      <c r="W59" s="4">
+        <f t="shared" si="58"/>
+        <v>0.23504808817013437</v>
+      </c>
+      <c r="X59" s="4">
+        <f t="shared" si="58"/>
+        <v>0.2250409871429804</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25">
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="4">
+        <f>SUM(D33,D35)/D57</f>
+        <v>1.7730755436731767</v>
+      </c>
+      <c r="E60" s="4">
+        <f>SUM(E33,E35)/E57</f>
+        <v>1.713079699444225</v>
+      </c>
+      <c r="F60" s="4">
+        <f>SUM(F33,F35)/F57</f>
+        <v>1.833930054213067</v>
+      </c>
+      <c r="G60" s="4">
+        <f>SUM(G33,G35)/G57</f>
+        <v>2.2336606665170939</v>
+      </c>
+      <c r="H60" s="4">
+        <f>SUM(H33,H35)/H57</f>
+        <v>2.0526371295880841</v>
+      </c>
+      <c r="I60" s="4">
+        <f>SUM(I33,I35)/I57</f>
+        <v>2.1269027746620117</v>
+      </c>
+      <c r="J60" s="4">
+        <f>SUM(J33,J35)/J57</f>
+        <v>2.0007668711656441</v>
+      </c>
+      <c r="K60" s="4">
+        <f>SUM(K33,K35)/K57</f>
+        <v>2.2220092024539877</v>
+      </c>
+      <c r="S60" s="4">
+        <f>SUM(S33,S35)/S57</f>
+        <v>0.21838007387250719</v>
+      </c>
+      <c r="T60" s="4">
+        <f t="shared" ref="T60:X60" si="59">SUM(T33,T35)/T57</f>
+        <v>0.48978715205167317</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="59"/>
+        <v>0.63681123409248763</v>
+      </c>
+      <c r="V60" s="4">
+        <f t="shared" si="59"/>
+        <v>1.2662535089842362</v>
+      </c>
+      <c r="W60" s="4">
+        <f t="shared" si="59"/>
+        <v>1.833930054213067</v>
+      </c>
+      <c r="X60" s="4">
+        <f t="shared" si="59"/>
+        <v>2.0007668711656441</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25">
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+    </row>
+    <row r="64" spans="2:25">
+      <c r="B64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C64" s="1">
         <v>280.94799999999998</v>
       </c>
-      <c r="D56" s="1">
-        <f>397.85-C56</f>
+      <c r="D64" s="1">
+        <f>397.85-C64</f>
         <v>116.90200000000004</v>
       </c>
-      <c r="E56" s="1">
-        <f>447.107-SUM(C56:D56)</f>
+      <c r="E64" s="1">
+        <f>447.107-SUM(C64:D64)</f>
         <v>49.257000000000005</v>
       </c>
-      <c r="F56" s="1">
-        <f>883.59-SUM(C56:E56)</f>
+      <c r="F64" s="1">
+        <f>883.59-SUM(C64:E64)</f>
         <v>436.483</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G64" s="1">
         <v>244.37799999999999</v>
       </c>
-      <c r="H56" s="1">
-        <f>175.957-G56</f>
+      <c r="H64" s="1">
+        <f>175.957-G64</f>
         <v>-68.420999999999992</v>
       </c>
-      <c r="I56" s="1">
-        <f>349.434-SUM(G56:H56)</f>
+      <c r="I64" s="1">
+        <f>349.434-SUM(G64:H64)</f>
         <v>173.47700000000003</v>
       </c>
-      <c r="J56" s="1">
-        <f>714.1-SUM(G56:I56)</f>
+      <c r="J64" s="1">
+        <f>714.1-SUM(G64:I64)</f>
         <v>364.666</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K64" s="1">
         <v>232.6</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R64" s="1">
         <v>367.28800000000001</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S64" s="1">
         <v>365.07400000000001</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T64" s="1">
         <v>252.946</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U64" s="1">
         <v>1280.02</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V64" s="1">
         <v>948.39099999999996</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W64" s="1">
         <v>883.59</v>
       </c>
     </row>
-    <row r="57" spans="2:23">
-      <c r="B57" s="1" t="s">
+    <row r="65" spans="2:23">
+      <c r="B65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C65" s="1">
         <v>-32.347999999999999</v>
       </c>
-      <c r="D57" s="1">
-        <f>+-63.807-C57</f>
+      <c r="D65" s="1">
+        <f>+-63.807-C65</f>
         <v>-31.459000000000003</v>
       </c>
-      <c r="E57" s="1">
-        <f>+-104.679-SUM(C57:D57)</f>
+      <c r="E65" s="1">
+        <f>+-104.679-SUM(C65:D65)</f>
         <v>-40.872</v>
       </c>
-      <c r="F57" s="1">
-        <f>+-132.944-SUM(C57:E57)</f>
+      <c r="F65" s="1">
+        <f>+-132.944-SUM(C65:E65)</f>
         <v>-28.264999999999986</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G65" s="1">
         <v>-35.174999999999997</v>
       </c>
-      <c r="H57" s="1">
-        <f>+-61.086-G57</f>
+      <c r="H65" s="1">
+        <f>+-61.086-G65</f>
         <v>-25.911000000000001</v>
       </c>
-      <c r="I57" s="1">
-        <f>+-89.147-SUM(G57:H57)</f>
+      <c r="I65" s="1">
+        <f>+-89.147-SUM(G65:H65)</f>
         <v>-28.061000000000007</v>
       </c>
-      <c r="J57" s="1">
-        <f>+-104.6-SUM(G57:I57)</f>
+      <c r="J65" s="1">
+        <f>+-104.6-SUM(G65:I65)</f>
         <v>-15.452999999999989</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K65" s="1">
         <v>-16.8</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R65" s="1">
         <v>-137.06399999999999</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S65" s="1">
         <v>-103.383</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T65" s="1">
         <v>-60.453000000000003</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U65" s="1">
         <v>-104.36</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V65" s="1">
         <v>-120.105</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W65" s="1">
         <v>-132.94399999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:23" s="3" customFormat="1">
-      <c r="B58" s="3" t="s">
+    <row r="66" spans="2:23" s="3" customFormat="1">
+      <c r="B66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="3">
-        <f t="shared" ref="C58:H58" si="46">+SUM(C56:C57)</f>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:H66" si="60">+SUM(C64:C65)</f>
         <v>248.59999999999997</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" si="46"/>
+      <c r="D66" s="3">
+        <f t="shared" si="60"/>
         <v>85.44300000000004</v>
       </c>
-      <c r="E58" s="3">
-        <f t="shared" si="46"/>
+      <c r="E66" s="3">
+        <f t="shared" si="60"/>
         <v>8.3850000000000051</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" si="46"/>
+      <c r="F66" s="3">
+        <f t="shared" si="60"/>
         <v>408.21800000000002</v>
       </c>
-      <c r="G58" s="3">
-        <f t="shared" si="46"/>
+      <c r="G66" s="3">
+        <f t="shared" si="60"/>
         <v>209.20299999999997</v>
       </c>
-      <c r="H58" s="3">
-        <f t="shared" si="46"/>
+      <c r="H66" s="3">
+        <f t="shared" si="60"/>
         <v>-94.331999999999994</v>
       </c>
-      <c r="I58" s="3">
-        <f>+SUM(I56:I57)</f>
+      <c r="I66" s="3">
+        <f>+SUM(I64:I65)</f>
         <v>145.41600000000003</v>
       </c>
-      <c r="J58" s="3">
-        <f>+SUM(J56:J57)</f>
+      <c r="J66" s="3">
+        <f>+SUM(J64:J65)</f>
         <v>349.21300000000002</v>
       </c>
-      <c r="K58" s="3">
-        <f>+SUM(K56:K57)</f>
+      <c r="K66" s="3">
+        <f>+SUM(K64:K65)</f>
         <v>215.79999999999998</v>
       </c>
-      <c r="R58" s="3">
-        <f>+SUM(R56:R57)</f>
+      <c r="R66" s="3">
+        <f>+SUM(R64:R65)</f>
         <v>230.22400000000002</v>
       </c>
-      <c r="S58" s="3">
-        <f t="shared" ref="S58:W58" si="47">+SUM(S56:S57)</f>
+      <c r="S66" s="3">
+        <f t="shared" ref="S66:W66" si="61">+SUM(S64:S65)</f>
         <v>261.69100000000003</v>
       </c>
-      <c r="T58" s="3">
-        <f t="shared" si="47"/>
+      <c r="T66" s="3">
+        <f t="shared" si="61"/>
         <v>192.49299999999999</v>
       </c>
-      <c r="U58" s="3">
-        <f t="shared" si="47"/>
+      <c r="U66" s="3">
+        <f t="shared" si="61"/>
         <v>1175.6600000000001</v>
       </c>
-      <c r="V58" s="3">
-        <f t="shared" si="47"/>
+      <c r="V66" s="3">
+        <f t="shared" si="61"/>
         <v>828.28599999999994</v>
       </c>
-      <c r="W58" s="3">
-        <f t="shared" si="47"/>
+      <c r="W66" s="3">
+        <f t="shared" si="61"/>
         <v>750.64600000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:23">
-      <c r="B59" s="1" t="s">
+    <row r="67" spans="2:23">
+      <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C67" s="1">
         <f>+C20</f>
         <v>245.44899999999996</v>
       </c>
-      <c r="D59" s="1">
-        <f t="shared" ref="D59:K59" si="48">+D20</f>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:K67" si="62">+D20</f>
         <v>176.16899999999958</v>
       </c>
-      <c r="E59" s="1">
-        <f t="shared" si="48"/>
+      <c r="E67" s="1">
+        <f t="shared" si="62"/>
         <v>195.99300000000014</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" si="48"/>
+      <c r="F67" s="1">
+        <f t="shared" si="62"/>
         <v>294.75600000000009</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" si="48"/>
+      <c r="G67" s="1">
+        <f t="shared" si="62"/>
         <v>225.67399999999995</v>
       </c>
-      <c r="H59" s="1">
-        <f t="shared" si="48"/>
+      <c r="H67" s="1">
+        <f t="shared" si="62"/>
         <v>120.84600000000034</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="48"/>
+      <c r="I67" s="1">
+        <f t="shared" si="62"/>
         <v>168.47000000000034</v>
       </c>
-      <c r="J59" s="1">
-        <f t="shared" si="48"/>
+      <c r="J67" s="1">
+        <f t="shared" si="62"/>
         <v>255.6999999999999</v>
       </c>
-      <c r="K59" s="1">
-        <f t="shared" si="48"/>
+      <c r="K67" s="1">
+        <f t="shared" si="62"/>
         <v>208.1999999999999</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R67" s="1">
         <f>+R20</f>
         <v>394.0949999999998</v>
       </c>
-      <c r="S59" s="1">
-        <f t="shared" ref="S59:W59" si="49">+S20</f>
+      <c r="S67" s="1">
+        <f t="shared" ref="S67:W67" si="63">+S20</f>
         <v>313.13700000000011</v>
       </c>
-      <c r="T59" s="1">
-        <f t="shared" si="49"/>
+      <c r="T67" s="1">
+        <f t="shared" si="63"/>
         <v>154.6899999999996</v>
       </c>
-      <c r="U59" s="1">
-        <f t="shared" si="49"/>
+      <c r="U67" s="1">
+        <f t="shared" si="63"/>
         <v>1037.1060000000011</v>
       </c>
-      <c r="V59" s="1">
-        <f t="shared" si="49"/>
+      <c r="V67" s="1">
+        <f t="shared" si="63"/>
         <v>1059.0300000000007</v>
       </c>
-      <c r="W59" s="1">
-        <f t="shared" si="49"/>
+      <c r="W67" s="1">
+        <f t="shared" si="63"/>
         <v>912.36699999999973</v>
       </c>
     </row>
-    <row r="61" spans="2:23">
-      <c r="B61" s="1" t="s">
+    <row r="69" spans="2:23">
+      <c r="B69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="1">
-        <f t="shared" ref="F61:H61" si="50">+SUM(C58:F58)</f>
+      <c r="F69" s="1">
+        <f t="shared" ref="F69:H69" si="64">+SUM(C66:F66)</f>
         <v>750.64599999999996</v>
       </c>
-      <c r="G61" s="1">
-        <f t="shared" si="50"/>
+      <c r="G69" s="1">
+        <f t="shared" si="64"/>
         <v>711.24900000000002</v>
       </c>
-      <c r="H61" s="1">
-        <f t="shared" si="50"/>
+      <c r="H69" s="1">
+        <f t="shared" si="64"/>
         <v>531.47400000000005</v>
       </c>
-      <c r="I61" s="1">
-        <f>+SUM(F58:I58)</f>
+      <c r="I69" s="1">
+        <f t="shared" ref="I69:K70" si="65">+SUM(F66:I66)</f>
         <v>668.50500000000011</v>
       </c>
-      <c r="J61" s="1">
-        <f>+SUM(G58:J58)</f>
+      <c r="J69" s="1">
+        <f t="shared" si="65"/>
         <v>609.5</v>
       </c>
-      <c r="K61" s="1">
-        <f>+SUM(H58:K58)</f>
+      <c r="K69" s="1">
+        <f t="shared" si="65"/>
         <v>616.09699999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:23">
-      <c r="B62" s="1" t="s">
+    <row r="70" spans="2:23">
+      <c r="B70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" ref="F62:H62" si="51">+SUM(C59:F59)</f>
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:H70" si="66">+SUM(C67:F67)</f>
         <v>912.36699999999973</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="51"/>
+      <c r="G70" s="1">
+        <f t="shared" si="66"/>
         <v>892.59199999999976</v>
       </c>
-      <c r="H62" s="1">
-        <f t="shared" si="51"/>
+      <c r="H70" s="1">
+        <f t="shared" si="66"/>
         <v>837.26900000000057</v>
       </c>
-      <c r="I62" s="1">
-        <f>+SUM(F59:I59)</f>
+      <c r="I70" s="1">
+        <f t="shared" si="65"/>
         <v>809.74600000000078</v>
       </c>
-      <c r="J62" s="1">
-        <f>+SUM(G59:J59)</f>
+      <c r="J70" s="1">
+        <f t="shared" si="65"/>
         <v>770.69000000000062</v>
       </c>
-      <c r="K62" s="1">
-        <f>+SUM(H59:K59)</f>
+      <c r="K70" s="1">
+        <f t="shared" si="65"/>
         <v>753.21600000000058</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="V71" s="1">
+        <f>1^6 * 1^3</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
